--- a/config_1.26/shoping_config_vivo.xlsx
+++ b/config_1.26/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4342" uniqueCount="2022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4405" uniqueCount="2061">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8609,6 +8609,159 @@
   </si>
   <si>
     <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋铜锤</t>
+  </si>
+  <si>
+    <t>（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋银锤</t>
+  </si>
+  <si>
+    <t>（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋金锤</t>
+  </si>
+  <si>
+    <t>"480万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V4-V7）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V4-V7）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V8-V10）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8687,7 +8840,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8738,19 +8891,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8803,7 +8944,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8951,34 +9092,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -8987,22 +9122,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -11463,13 +11592,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN532"/>
+  <dimension ref="A1:AN541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U491" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="U512" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W497" sqref="W497:W508"/>
+      <selection pane="bottomRight" activeCell="A533" sqref="A533:XFD541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15311,298 +15440,298 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="53">
+    <row r="67" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="51">
         <v>66</v>
       </c>
-      <c r="B67" s="53">
+      <c r="B67" s="51">
         <v>85</v>
       </c>
-      <c r="D67" s="53">
+      <c r="D67" s="51">
         <v>2</v>
       </c>
-      <c r="F67" s="53">
-        <v>1</v>
-      </c>
-      <c r="G67" s="53" t="s">
+      <c r="F67" s="51">
+        <v>1</v>
+      </c>
+      <c r="G67" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="H67" s="53" t="s">
+      <c r="H67" s="51" t="s">
         <v>1786</v>
       </c>
-      <c r="L67" s="53">
+      <c r="L67" s="51">
         <v>-4</v>
       </c>
-      <c r="M67" s="53">
-        <v>0</v>
-      </c>
-      <c r="N67" s="53">
-        <v>0</v>
-      </c>
-      <c r="O67" s="53" t="s">
+      <c r="M67" s="51">
+        <v>0</v>
+      </c>
+      <c r="N67" s="51">
+        <v>0</v>
+      </c>
+      <c r="O67" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P67" s="53">
+      <c r="P67" s="51">
         <v>1500</v>
       </c>
-      <c r="Q67" s="53" t="s">
+      <c r="Q67" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R67" s="53" t="s">
+      <c r="R67" s="51" t="s">
         <v>1366</v>
       </c>
-      <c r="W67" s="53" t="s">
+      <c r="W67" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X67" s="54" t="s">
+      <c r="X67" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y67" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="53">
+      <c r="Y67" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH67" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI67" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="53">
+      <c r="AH67" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI67" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="51">
         <v>67</v>
       </c>
-      <c r="B68" s="53">
+      <c r="B68" s="51">
         <v>86</v>
       </c>
-      <c r="D68" s="53">
+      <c r="D68" s="51">
         <v>3</v>
       </c>
-      <c r="F68" s="53">
-        <v>1</v>
-      </c>
-      <c r="G68" s="53" t="s">
+      <c r="F68" s="51">
+        <v>1</v>
+      </c>
+      <c r="G68" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="H68" s="53" t="s">
+      <c r="H68" s="51" t="s">
         <v>1787</v>
       </c>
-      <c r="L68" s="53">
+      <c r="L68" s="51">
         <v>-4</v>
       </c>
-      <c r="M68" s="53">
-        <v>0</v>
-      </c>
-      <c r="N68" s="53">
-        <v>0</v>
-      </c>
-      <c r="O68" s="53" t="s">
+      <c r="M68" s="51">
+        <v>0</v>
+      </c>
+      <c r="N68" s="51">
+        <v>0</v>
+      </c>
+      <c r="O68" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P68" s="53">
+      <c r="P68" s="51">
         <v>3000</v>
       </c>
-      <c r="Q68" s="53" t="s">
+      <c r="Q68" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R68" s="53" t="s">
+      <c r="R68" s="51" t="s">
         <v>1382</v>
       </c>
-      <c r="W68" s="53" t="s">
+      <c r="W68" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X68" s="54" t="s">
+      <c r="X68" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y68" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="53">
+      <c r="Y68" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH68" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI68" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="53">
+      <c r="AH68" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI68" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="51">
         <v>68</v>
       </c>
-      <c r="B69" s="53">
+      <c r="B69" s="51">
         <v>87</v>
       </c>
-      <c r="D69" s="53">
+      <c r="D69" s="51">
         <v>4</v>
       </c>
-      <c r="F69" s="53">
-        <v>1</v>
-      </c>
-      <c r="G69" s="53" t="s">
+      <c r="F69" s="51">
+        <v>1</v>
+      </c>
+      <c r="G69" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="H69" s="53" t="s">
+      <c r="H69" s="51" t="s">
         <v>1788</v>
       </c>
-      <c r="L69" s="53">
+      <c r="L69" s="51">
         <v>-4</v>
       </c>
-      <c r="M69" s="53">
-        <v>0</v>
-      </c>
-      <c r="N69" s="53">
-        <v>0</v>
-      </c>
-      <c r="O69" s="53" t="s">
+      <c r="M69" s="51">
+        <v>0</v>
+      </c>
+      <c r="N69" s="51">
+        <v>0</v>
+      </c>
+      <c r="O69" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P69" s="53">
+      <c r="P69" s="51">
         <v>5000</v>
       </c>
-      <c r="Q69" s="53" t="s">
+      <c r="Q69" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R69" s="53" t="s">
+      <c r="R69" s="51" t="s">
         <v>1367</v>
       </c>
-      <c r="W69" s="53" t="s">
+      <c r="W69" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X69" s="54" t="s">
+      <c r="X69" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y69" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="53">
+      <c r="Y69" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH69" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI69" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="53">
+      <c r="AH69" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI69" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="51">
         <v>69</v>
       </c>
-      <c r="B70" s="53">
+      <c r="B70" s="51">
         <v>88</v>
       </c>
-      <c r="D70" s="53">
+      <c r="D70" s="51">
         <v>5</v>
       </c>
-      <c r="F70" s="53">
-        <v>1</v>
-      </c>
-      <c r="G70" s="53" t="s">
+      <c r="F70" s="51">
+        <v>1</v>
+      </c>
+      <c r="G70" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="H70" s="53" t="s">
+      <c r="H70" s="51" t="s">
         <v>1789</v>
       </c>
-      <c r="L70" s="53">
+      <c r="L70" s="51">
         <v>-4</v>
       </c>
-      <c r="M70" s="53">
-        <v>0</v>
-      </c>
-      <c r="N70" s="53">
-        <v>0</v>
-      </c>
-      <c r="O70" s="53" t="s">
+      <c r="M70" s="51">
+        <v>0</v>
+      </c>
+      <c r="N70" s="51">
+        <v>0</v>
+      </c>
+      <c r="O70" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P70" s="53">
+      <c r="P70" s="51">
         <v>9800</v>
       </c>
-      <c r="Q70" s="53" t="s">
+      <c r="Q70" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R70" s="53" t="s">
+      <c r="R70" s="51" t="s">
         <v>1368</v>
       </c>
-      <c r="W70" s="53" t="s">
+      <c r="W70" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X70" s="54" t="s">
+      <c r="X70" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y70" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="53">
+      <c r="Y70" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH70" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI70" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="53">
+      <c r="AH70" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI70" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="51">
         <v>70</v>
       </c>
-      <c r="B71" s="53">
+      <c r="B71" s="51">
         <v>89</v>
       </c>
-      <c r="D71" s="53">
+      <c r="D71" s="51">
         <v>6</v>
       </c>
-      <c r="F71" s="53">
-        <v>1</v>
-      </c>
-      <c r="G71" s="53" t="s">
+      <c r="F71" s="51">
+        <v>1</v>
+      </c>
+      <c r="G71" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="H71" s="53" t="s">
+      <c r="H71" s="51" t="s">
         <v>1790</v>
       </c>
-      <c r="L71" s="53">
+      <c r="L71" s="51">
         <v>-4</v>
       </c>
-      <c r="M71" s="53">
-        <v>0</v>
-      </c>
-      <c r="N71" s="53">
-        <v>0</v>
-      </c>
-      <c r="O71" s="53" t="s">
+      <c r="M71" s="51">
+        <v>0</v>
+      </c>
+      <c r="N71" s="51">
+        <v>0</v>
+      </c>
+      <c r="O71" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P71" s="53">
+      <c r="P71" s="51">
         <v>49800</v>
       </c>
-      <c r="Q71" s="53" t="s">
+      <c r="Q71" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R71" s="53" t="s">
+      <c r="R71" s="51" t="s">
         <v>1369</v>
       </c>
-      <c r="W71" s="53" t="s">
+      <c r="W71" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X71" s="54" t="s">
+      <c r="X71" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y71" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="53">
+      <c r="Y71" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH71" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI71" s="53">
+      <c r="AH71" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI71" s="51">
         <v>1</v>
       </c>
     </row>
@@ -16898,56 +17027,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="53">
+    <row r="94" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="51">
         <v>93</v>
       </c>
-      <c r="B94" s="53">
+      <c r="B94" s="51">
         <v>109</v>
       </c>
-      <c r="F94" s="53">
-        <v>1</v>
-      </c>
-      <c r="G94" s="53" t="s">
+      <c r="F94" s="51">
+        <v>1</v>
+      </c>
+      <c r="G94" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="L94" s="53">
+      <c r="L94" s="51">
         <v>-4</v>
       </c>
-      <c r="M94" s="53">
-        <v>0</v>
-      </c>
-      <c r="N94" s="53">
-        <v>0</v>
-      </c>
-      <c r="O94" s="53" t="s">
+      <c r="M94" s="51">
+        <v>0</v>
+      </c>
+      <c r="N94" s="51">
+        <v>0</v>
+      </c>
+      <c r="O94" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P94" s="53">
+      <c r="P94" s="51">
         <v>100000</v>
       </c>
-      <c r="Q94" s="53" t="s">
+      <c r="Q94" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R94" s="53" t="s">
+      <c r="R94" s="51" t="s">
         <v>687</v>
       </c>
-      <c r="W94" s="53" t="s">
+      <c r="W94" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X94" s="54" t="s">
+      <c r="X94" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y94" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="53">
+      <c r="Y94" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH94" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI94" s="53">
+      <c r="AH94" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI94" s="51">
         <v>1</v>
       </c>
     </row>
@@ -18929,121 +19058,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="53">
+    <row r="128" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="51">
         <v>127</v>
       </c>
-      <c r="B128" s="53">
+      <c r="B128" s="51">
         <v>10044</v>
       </c>
-      <c r="D128" s="53">
+      <c r="D128" s="51">
         <v>108</v>
       </c>
-      <c r="F128" s="53">
-        <v>1</v>
-      </c>
-      <c r="G128" s="53" t="s">
+      <c r="F128" s="51">
+        <v>1</v>
+      </c>
+      <c r="G128" s="51" t="s">
         <v>319</v>
       </c>
-      <c r="H128" s="53" t="s">
+      <c r="H128" s="51" t="s">
         <v>1791</v>
       </c>
-      <c r="L128" s="53">
+      <c r="L128" s="51">
         <v>-10</v>
       </c>
-      <c r="M128" s="53">
-        <v>0</v>
-      </c>
-      <c r="N128" s="53">
-        <v>0</v>
-      </c>
-      <c r="O128" s="53" t="s">
+      <c r="M128" s="51">
+        <v>0</v>
+      </c>
+      <c r="N128" s="51">
+        <v>0</v>
+      </c>
+      <c r="O128" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P128" s="53">
+      <c r="P128" s="51">
         <v>99800</v>
       </c>
-      <c r="Q128" s="53" t="s">
+      <c r="Q128" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R128" s="53" t="s">
+      <c r="R128" s="51" t="s">
         <v>1371</v>
       </c>
-      <c r="W128" s="53" t="s">
+      <c r="W128" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X128" s="54" t="s">
+      <c r="X128" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y128" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z128" s="53">
+      <c r="Y128" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z128" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH128" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI128" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="53">
+      <c r="AH128" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI128" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="51">
         <v>128</v>
       </c>
-      <c r="B129" s="53">
+      <c r="B129" s="51">
         <v>10045</v>
       </c>
-      <c r="D129" s="53">
+      <c r="D129" s="51">
         <v>110</v>
       </c>
-      <c r="F129" s="53">
-        <v>1</v>
-      </c>
-      <c r="G129" s="53" t="s">
+      <c r="F129" s="51">
+        <v>1</v>
+      </c>
+      <c r="G129" s="51" t="s">
         <v>1129</v>
       </c>
-      <c r="H129" s="53" t="s">
+      <c r="H129" s="51" t="s">
         <v>1792</v>
       </c>
-      <c r="L129" s="53">
+      <c r="L129" s="51">
         <v>-11</v>
       </c>
-      <c r="M129" s="53">
-        <v>0</v>
-      </c>
-      <c r="N129" s="53">
-        <v>0</v>
-      </c>
-      <c r="O129" s="53" t="s">
+      <c r="M129" s="51">
+        <v>0</v>
+      </c>
+      <c r="N129" s="51">
+        <v>0</v>
+      </c>
+      <c r="O129" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P129" s="53">
+      <c r="P129" s="51">
         <v>249800</v>
       </c>
-      <c r="Q129" s="53" t="s">
+      <c r="Q129" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R129" s="53" t="s">
+      <c r="R129" s="51" t="s">
         <v>1370</v>
       </c>
-      <c r="W129" s="53" t="s">
+      <c r="W129" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X129" s="54" t="s">
+      <c r="X129" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y129" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z129" s="53">
+      <c r="Y129" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH129" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI129" s="53">
+      <c r="AH129" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI129" s="51">
         <v>1</v>
       </c>
     </row>
@@ -21651,7 +21780,7 @@
       <c r="Q171" s="43" t="s">
         <v>1737</v>
       </c>
-      <c r="R171" s="52" t="s">
+      <c r="R171" s="50" t="s">
         <v>1738</v>
       </c>
       <c r="W171" s="43" t="s">
@@ -21719,7 +21848,7 @@
       <c r="Q172" s="43" t="s">
         <v>1741</v>
       </c>
-      <c r="R172" s="52" t="s">
+      <c r="R172" s="50" t="s">
         <v>1731</v>
       </c>
       <c r="W172" s="43" t="s">
@@ -21787,7 +21916,7 @@
       <c r="Q173" s="43" t="s">
         <v>1737</v>
       </c>
-      <c r="R173" s="52" t="s">
+      <c r="R173" s="50" t="s">
         <v>1732</v>
       </c>
       <c r="W173" s="43" t="s">
@@ -21855,7 +21984,7 @@
       <c r="Q174" s="43" t="s">
         <v>1737</v>
       </c>
-      <c r="R174" s="52" t="s">
+      <c r="R174" s="50" t="s">
         <v>1746</v>
       </c>
       <c r="W174" s="43" t="s">
@@ -21923,7 +22052,7 @@
       <c r="Q175" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="R175" s="52" t="s">
+      <c r="R175" s="50" t="s">
         <v>960</v>
       </c>
       <c r="W175" s="43" t="s">
@@ -21991,7 +22120,7 @@
       <c r="Q176" s="43" t="s">
         <v>1750</v>
       </c>
-      <c r="R176" s="52" t="s">
+      <c r="R176" s="50" t="s">
         <v>1751</v>
       </c>
       <c r="W176" s="43" t="s">
@@ -22059,7 +22188,7 @@
       <c r="Q177" s="43" t="s">
         <v>1750</v>
       </c>
-      <c r="R177" s="52" t="s">
+      <c r="R177" s="50" t="s">
         <v>1754</v>
       </c>
       <c r="W177" s="43" t="s">
@@ -22127,7 +22256,7 @@
       <c r="Q178" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="R178" s="52" t="s">
+      <c r="R178" s="50" t="s">
         <v>1756</v>
       </c>
       <c r="W178" s="43" t="s">
@@ -22195,7 +22324,7 @@
       <c r="Q179" s="43" t="s">
         <v>1750</v>
       </c>
-      <c r="R179" s="52" t="s">
+      <c r="R179" s="50" t="s">
         <v>1759</v>
       </c>
       <c r="W179" s="43" t="s">
@@ -22263,7 +22392,7 @@
       <c r="Q180" s="43" t="s">
         <v>1750</v>
       </c>
-      <c r="R180" s="52" t="s">
+      <c r="R180" s="50" t="s">
         <v>1756</v>
       </c>
       <c r="W180" s="43" t="s">
@@ -22331,7 +22460,7 @@
       <c r="Q181" s="43" t="s">
         <v>1750</v>
       </c>
-      <c r="R181" s="52" t="s">
+      <c r="R181" s="50" t="s">
         <v>1759</v>
       </c>
       <c r="W181" s="43" t="s">
@@ -22399,7 +22528,7 @@
       <c r="Q182" s="43" t="s">
         <v>1750</v>
       </c>
-      <c r="R182" s="52" t="s">
+      <c r="R182" s="50" t="s">
         <v>1764</v>
       </c>
       <c r="W182" s="43" t="s">
@@ -22467,7 +22596,7 @@
       <c r="Q183" s="43" t="s">
         <v>1750</v>
       </c>
-      <c r="R183" s="52" t="s">
+      <c r="R183" s="50" t="s">
         <v>1759</v>
       </c>
       <c r="W183" s="43" t="s">
@@ -22535,7 +22664,7 @@
       <c r="Q184" s="43" t="s">
         <v>1750</v>
       </c>
-      <c r="R184" s="52" t="s">
+      <c r="R184" s="50" t="s">
         <v>1764</v>
       </c>
       <c r="W184" s="43" t="s">
@@ -22603,7 +22732,7 @@
       <c r="Q185" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="R185" s="52" t="s">
+      <c r="R185" s="50" t="s">
         <v>1769</v>
       </c>
       <c r="W185" s="43" t="s">
@@ -28291,62 +28420,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:40" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A273" s="53">
+    <row r="273" spans="1:40" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A273" s="51">
         <v>272</v>
       </c>
-      <c r="B273" s="53">
+      <c r="B273" s="51">
         <v>10189</v>
       </c>
-      <c r="D273" s="56">
+      <c r="D273" s="54">
         <v>111</v>
       </c>
-      <c r="F273" s="53">
-        <v>1</v>
-      </c>
-      <c r="G273" s="53" t="s">
+      <c r="F273" s="51">
+        <v>1</v>
+      </c>
+      <c r="G273" s="51" t="s">
         <v>520</v>
       </c>
-      <c r="H273" s="58" t="s">
+      <c r="H273" s="56" t="s">
         <v>1853</v>
       </c>
-      <c r="L273" s="53">
+      <c r="L273" s="51">
         <v>-10</v>
       </c>
-      <c r="M273" s="53">
-        <v>0</v>
-      </c>
-      <c r="N273" s="53">
-        <v>0</v>
-      </c>
-      <c r="O273" s="53" t="s">
+      <c r="M273" s="51">
+        <v>0</v>
+      </c>
+      <c r="N273" s="51">
+        <v>0</v>
+      </c>
+      <c r="O273" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P273" s="53">
+      <c r="P273" s="51">
         <v>19800</v>
       </c>
-      <c r="Q273" s="53" t="s">
+      <c r="Q273" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R273" s="53" t="s">
+      <c r="R273" s="51" t="s">
         <v>1372</v>
       </c>
-      <c r="W273" s="53" t="s">
+      <c r="W273" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X273" s="54" t="s">
+      <c r="X273" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y273" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z273" s="53">
+      <c r="Y273" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z273" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH273" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI273" s="53">
+      <c r="AH273" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI273" s="51">
         <v>1</v>
       </c>
     </row>
@@ -31455,7 +31584,7 @@
       <c r="Q323" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="R323" s="52" t="s">
+      <c r="R323" s="50" t="s">
         <v>1720</v>
       </c>
       <c r="W323" s="43" t="s">
@@ -31520,7 +31649,7 @@
       <c r="Q324" s="43" t="s">
         <v>1725</v>
       </c>
-      <c r="R324" s="52" t="s">
+      <c r="R324" s="50" t="s">
         <v>1726</v>
       </c>
       <c r="W324" s="43" t="s">
@@ -31585,7 +31714,7 @@
       <c r="Q325" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="R325" s="52" t="s">
+      <c r="R325" s="50" t="s">
         <v>1729</v>
       </c>
       <c r="W325" s="43" t="s">
@@ -31777,7 +31906,7 @@
       <c r="Q328" s="43" t="s">
         <v>1627</v>
       </c>
-      <c r="R328" s="52" t="s">
+      <c r="R328" s="50" t="s">
         <v>983</v>
       </c>
       <c r="S328" s="43"/>
@@ -31860,7 +31989,7 @@
       <c r="Q329" s="43" t="s">
         <v>1631</v>
       </c>
-      <c r="R329" s="52" t="s">
+      <c r="R329" s="50" t="s">
         <v>1632</v>
       </c>
       <c r="S329" s="43"/>
@@ -31943,7 +32072,7 @@
       <c r="Q330" s="43" t="s">
         <v>1627</v>
       </c>
-      <c r="R330" s="52" t="s">
+      <c r="R330" s="50" t="s">
         <v>1634</v>
       </c>
       <c r="S330" s="43"/>
@@ -32026,7 +32155,7 @@
       <c r="Q331" s="43" t="s">
         <v>1636</v>
       </c>
-      <c r="R331" s="52" t="s">
+      <c r="R331" s="50" t="s">
         <v>1637</v>
       </c>
       <c r="S331" s="43"/>
@@ -32109,7 +32238,7 @@
       <c r="Q332" s="43" t="s">
         <v>1627</v>
       </c>
-      <c r="R332" s="52" t="s">
+      <c r="R332" s="50" t="s">
         <v>1639</v>
       </c>
       <c r="S332" s="43"/>
@@ -32192,7 +32321,7 @@
       <c r="Q333" s="43" t="s">
         <v>1627</v>
       </c>
-      <c r="R333" s="52" t="s">
+      <c r="R333" s="50" t="s">
         <v>1641</v>
       </c>
       <c r="S333" s="43"/>
@@ -32275,7 +32404,7 @@
       <c r="Q334" s="43" t="s">
         <v>1645</v>
       </c>
-      <c r="R334" s="52" t="s">
+      <c r="R334" s="50" t="s">
         <v>1646</v>
       </c>
       <c r="S334" s="43"/>
@@ -32358,7 +32487,7 @@
       <c r="Q335" s="43" t="s">
         <v>1627</v>
       </c>
-      <c r="R335" s="52" t="s">
+      <c r="R335" s="50" t="s">
         <v>1648</v>
       </c>
       <c r="S335" s="43"/>
@@ -32441,7 +32570,7 @@
       <c r="Q336" s="43" t="s">
         <v>1636</v>
       </c>
-      <c r="R336" s="52" t="s">
+      <c r="R336" s="50" t="s">
         <v>1650</v>
       </c>
       <c r="S336" s="43"/>
@@ -32524,7 +32653,7 @@
       <c r="Q337" s="43" t="s">
         <v>1636</v>
       </c>
-      <c r="R337" s="52" t="s">
+      <c r="R337" s="50" t="s">
         <v>1652</v>
       </c>
       <c r="S337" s="43"/>
@@ -36102,7 +36231,7 @@
       <c r="G389" s="19" t="s">
         <v>1282</v>
       </c>
-      <c r="H389" s="51"/>
+      <c r="H389" s="49"/>
       <c r="I389" s="19" t="s">
         <v>1283</v>
       </c>
@@ -36171,7 +36300,7 @@
       <c r="G390" s="19" t="s">
         <v>1269</v>
       </c>
-      <c r="H390" s="51"/>
+      <c r="H390" s="49"/>
       <c r="I390" s="19" t="s">
         <v>1112</v>
       </c>
@@ -36240,7 +36369,7 @@
       <c r="G391" s="19" t="s">
         <v>1290</v>
       </c>
-      <c r="H391" s="51"/>
+      <c r="H391" s="49"/>
       <c r="I391" s="19" t="s">
         <v>1283</v>
       </c>
@@ -37720,62 +37849,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="53">
+    <row r="414" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="51">
         <v>413</v>
       </c>
-      <c r="B414" s="53">
+      <c r="B414" s="51">
         <v>10330</v>
       </c>
-      <c r="D414" s="53">
-        <v>1</v>
-      </c>
-      <c r="F414" s="53">
-        <v>1</v>
-      </c>
-      <c r="G414" s="53" t="s">
+      <c r="D414" s="51">
+        <v>1</v>
+      </c>
+      <c r="F414" s="51">
+        <v>1</v>
+      </c>
+      <c r="G414" s="51" t="s">
         <v>1377</v>
       </c>
-      <c r="H414" s="53" t="s">
+      <c r="H414" s="51" t="s">
         <v>1785</v>
       </c>
-      <c r="L414" s="53">
+      <c r="L414" s="51">
         <v>-4</v>
       </c>
-      <c r="M414" s="53">
-        <v>0</v>
-      </c>
-      <c r="N414" s="53">
-        <v>0</v>
-      </c>
-      <c r="O414" s="53" t="s">
+      <c r="M414" s="51">
+        <v>0</v>
+      </c>
+      <c r="N414" s="51">
+        <v>0</v>
+      </c>
+      <c r="O414" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P414" s="53">
+      <c r="P414" s="51">
         <v>600</v>
       </c>
-      <c r="Q414" s="53" t="s">
+      <c r="Q414" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R414" s="57" t="s">
+      <c r="R414" s="55" t="s">
         <v>1784</v>
       </c>
-      <c r="W414" s="53" t="s">
+      <c r="W414" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X414" s="54" t="s">
+      <c r="X414" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y414" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z414" s="53">
+      <c r="Y414" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z414" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH414" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI414" s="53">
+      <c r="AH414" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI414" s="51">
         <v>1</v>
       </c>
     </row>
@@ -38187,827 +38316,827 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="63">
+    <row r="421" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="59">
         <v>420</v>
       </c>
-      <c r="B421" s="63">
+      <c r="B421" s="59">
         <v>10337</v>
       </c>
-      <c r="F421" s="63">
-        <v>1</v>
-      </c>
-      <c r="G421" s="63" t="s">
+      <c r="F421" s="59">
+        <v>1</v>
+      </c>
+      <c r="G421" s="59" t="s">
         <v>1417</v>
       </c>
-      <c r="J421" s="63" t="s">
+      <c r="J421" s="59" t="s">
         <v>1418</v>
       </c>
-      <c r="L421" s="63">
+      <c r="L421" s="59">
         <v>-31</v>
       </c>
-      <c r="M421" s="63">
-        <v>0</v>
-      </c>
-      <c r="N421" s="63">
-        <v>0</v>
-      </c>
-      <c r="O421" s="63" t="s">
+      <c r="M421" s="59">
+        <v>0</v>
+      </c>
+      <c r="N421" s="59">
+        <v>0</v>
+      </c>
+      <c r="O421" s="59" t="s">
         <v>1419</v>
       </c>
-      <c r="P421" s="63">
+      <c r="P421" s="59">
         <v>1000</v>
       </c>
-      <c r="Q421" s="63" t="s">
+      <c r="Q421" s="59" t="s">
         <v>1420</v>
       </c>
-      <c r="R421" s="64" t="s">
+      <c r="R421" s="60" t="s">
         <v>1421</v>
       </c>
-      <c r="W421" s="63" t="s">
+      <c r="W421" s="59" t="s">
         <v>1422</v>
       </c>
-      <c r="X421" s="63">
+      <c r="X421" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y421" s="63">
+      <c r="Y421" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z421" s="63">
+      <c r="Z421" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AB421" s="63" t="s">
+      <c r="AB421" s="59" t="s">
         <v>1423</v>
       </c>
-      <c r="AC421" s="63" t="s">
+      <c r="AC421" s="59" t="s">
         <v>1424</v>
       </c>
-      <c r="AH421" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI421" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL421" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM421" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="63">
+      <c r="AH421" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI421" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL421" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM421" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="59">
         <v>421</v>
       </c>
-      <c r="B422" s="63">
+      <c r="B422" s="59">
         <v>10338</v>
       </c>
-      <c r="F422" s="63">
-        <v>1</v>
-      </c>
-      <c r="G422" s="63" t="s">
+      <c r="F422" s="59">
+        <v>1</v>
+      </c>
+      <c r="G422" s="59" t="s">
         <v>1441</v>
       </c>
-      <c r="I422" s="63" t="s">
+      <c r="I422" s="59" t="s">
         <v>1442</v>
       </c>
-      <c r="J422" s="63" t="s">
+      <c r="J422" s="59" t="s">
         <v>1443</v>
       </c>
-      <c r="L422" s="63">
+      <c r="L422" s="59">
         <v>-31</v>
       </c>
-      <c r="M422" s="63">
-        <v>0</v>
-      </c>
-      <c r="N422" s="63">
-        <v>0</v>
-      </c>
-      <c r="O422" s="63" t="s">
+      <c r="M422" s="59">
+        <v>0</v>
+      </c>
+      <c r="N422" s="59">
+        <v>0</v>
+      </c>
+      <c r="O422" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P422" s="63">
+      <c r="P422" s="59">
         <v>2000</v>
       </c>
-      <c r="Q422" s="63" t="s">
+      <c r="Q422" s="59" t="s">
         <v>1444</v>
       </c>
-      <c r="R422" s="64" t="s">
+      <c r="R422" s="60" t="s">
         <v>1445</v>
       </c>
-      <c r="W422" s="63" t="s">
+      <c r="W422" s="59" t="s">
         <v>1446</v>
       </c>
-      <c r="X422" s="63">
+      <c r="X422" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y422" s="63">
+      <c r="Y422" s="59">
         <v>1603756800</v>
       </c>
-      <c r="Z422" s="63">
+      <c r="Z422" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA422" s="63">
+      <c r="AA422" s="59">
         <v>51</v>
       </c>
-      <c r="AH422" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI422" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL422" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM422" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="63">
+      <c r="AH422" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI422" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL422" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM422" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="59">
         <v>422</v>
       </c>
-      <c r="B423" s="63">
+      <c r="B423" s="59">
         <v>10339</v>
       </c>
-      <c r="F423" s="63">
-        <v>1</v>
-      </c>
-      <c r="G423" s="63" t="s">
+      <c r="F423" s="59">
+        <v>1</v>
+      </c>
+      <c r="G423" s="59" t="s">
         <v>1426</v>
       </c>
-      <c r="I423" s="63" t="s">
+      <c r="I423" s="59" t="s">
         <v>1425</v>
       </c>
-      <c r="J423" s="63" t="s">
+      <c r="J423" s="59" t="s">
         <v>1447</v>
       </c>
-      <c r="L423" s="63">
+      <c r="L423" s="59">
         <v>-31</v>
       </c>
-      <c r="M423" s="63">
-        <v>0</v>
-      </c>
-      <c r="N423" s="63">
-        <v>0</v>
-      </c>
-      <c r="O423" s="63" t="s">
+      <c r="M423" s="59">
+        <v>0</v>
+      </c>
+      <c r="N423" s="59">
+        <v>0</v>
+      </c>
+      <c r="O423" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P423" s="63">
+      <c r="P423" s="59">
         <v>5800</v>
       </c>
-      <c r="Q423" s="63" t="s">
+      <c r="Q423" s="59" t="s">
         <v>1448</v>
       </c>
-      <c r="R423" s="64" t="s">
+      <c r="R423" s="60" t="s">
         <v>1449</v>
       </c>
-      <c r="W423" s="63" t="s">
+      <c r="W423" s="59" t="s">
         <v>984</v>
       </c>
-      <c r="X423" s="63">
+      <c r="X423" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y423" s="63">
+      <c r="Y423" s="59">
         <v>1603756800</v>
       </c>
-      <c r="Z423" s="63">
+      <c r="Z423" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA423" s="63">
+      <c r="AA423" s="59">
         <v>51</v>
       </c>
-      <c r="AH423" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI423" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL423" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM423" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="63">
+      <c r="AH423" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI423" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL423" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM423" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="59">
         <v>423</v>
       </c>
-      <c r="B424" s="63">
+      <c r="B424" s="59">
         <v>10340</v>
       </c>
-      <c r="F424" s="63">
-        <v>1</v>
-      </c>
-      <c r="G424" s="63" t="s">
+      <c r="F424" s="59">
+        <v>1</v>
+      </c>
+      <c r="G424" s="59" t="s">
         <v>1450</v>
       </c>
-      <c r="I424" s="63" t="s">
+      <c r="I424" s="59" t="s">
         <v>1425</v>
       </c>
-      <c r="J424" s="63" t="s">
+      <c r="J424" s="59" t="s">
         <v>1451</v>
       </c>
-      <c r="L424" s="63">
+      <c r="L424" s="59">
         <v>-31</v>
       </c>
-      <c r="M424" s="63">
-        <v>0</v>
-      </c>
-      <c r="N424" s="63">
-        <v>0</v>
-      </c>
-      <c r="O424" s="63" t="s">
+      <c r="M424" s="59">
+        <v>0</v>
+      </c>
+      <c r="N424" s="59">
+        <v>0</v>
+      </c>
+      <c r="O424" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P424" s="63">
+      <c r="P424" s="59">
         <v>12800</v>
       </c>
-      <c r="Q424" s="63" t="s">
+      <c r="Q424" s="59" t="s">
         <v>1452</v>
       </c>
-      <c r="R424" s="64" t="s">
+      <c r="R424" s="60" t="s">
         <v>1453</v>
       </c>
-      <c r="W424" s="63" t="s">
+      <c r="W424" s="59" t="s">
         <v>984</v>
       </c>
-      <c r="X424" s="63">
+      <c r="X424" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y424" s="63">
+      <c r="Y424" s="59">
         <v>1603756800</v>
       </c>
-      <c r="Z424" s="63">
+      <c r="Z424" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA424" s="63">
+      <c r="AA424" s="59">
         <v>51</v>
       </c>
-      <c r="AH424" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI424" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL424" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM424" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="63">
+      <c r="AH424" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI424" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL424" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM424" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="59">
         <v>424</v>
       </c>
-      <c r="B425" s="63">
+      <c r="B425" s="59">
         <v>10341</v>
       </c>
-      <c r="F425" s="63">
-        <v>1</v>
-      </c>
-      <c r="G425" s="63" t="s">
+      <c r="F425" s="59">
+        <v>1</v>
+      </c>
+      <c r="G425" s="59" t="s">
         <v>1427</v>
       </c>
-      <c r="J425" s="63" t="s">
+      <c r="J425" s="59" t="s">
         <v>1428</v>
       </c>
-      <c r="L425" s="63">
+      <c r="L425" s="59">
         <v>-31</v>
       </c>
-      <c r="M425" s="63">
-        <v>0</v>
-      </c>
-      <c r="N425" s="63">
-        <v>0</v>
-      </c>
-      <c r="O425" s="63" t="s">
+      <c r="M425" s="59">
+        <v>0</v>
+      </c>
+      <c r="N425" s="59">
+        <v>0</v>
+      </c>
+      <c r="O425" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P425" s="63">
+      <c r="P425" s="59">
         <v>49800</v>
       </c>
-      <c r="Q425" s="63" t="s">
+      <c r="Q425" s="59" t="s">
         <v>1429</v>
       </c>
-      <c r="R425" s="64" t="s">
+      <c r="R425" s="60" t="s">
         <v>1430</v>
       </c>
-      <c r="W425" s="63" t="s">
+      <c r="W425" s="59" t="s">
         <v>568</v>
       </c>
-      <c r="X425" s="63">
+      <c r="X425" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y425" s="63">
+      <c r="Y425" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z425" s="63">
+      <c r="Z425" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH425" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI425" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A426" s="63">
+      <c r="AH425" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI425" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="59">
         <v>425</v>
       </c>
-      <c r="B426" s="63">
+      <c r="B426" s="59">
         <v>10342</v>
       </c>
-      <c r="F426" s="63">
-        <v>1</v>
-      </c>
-      <c r="G426" s="63" t="s">
+      <c r="F426" s="59">
+        <v>1</v>
+      </c>
+      <c r="G426" s="59" t="s">
         <v>1431</v>
       </c>
-      <c r="J426" s="63" t="s">
+      <c r="J426" s="59" t="s">
         <v>1432</v>
       </c>
-      <c r="L426" s="63">
+      <c r="L426" s="59">
         <v>-31</v>
       </c>
-      <c r="M426" s="63">
-        <v>0</v>
-      </c>
-      <c r="N426" s="63">
-        <v>0</v>
-      </c>
-      <c r="O426" s="63" t="s">
+      <c r="M426" s="59">
+        <v>0</v>
+      </c>
+      <c r="N426" s="59">
+        <v>0</v>
+      </c>
+      <c r="O426" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P426" s="63">
+      <c r="P426" s="59">
         <v>19800</v>
       </c>
-      <c r="Q426" s="63" t="s">
+      <c r="Q426" s="59" t="s">
         <v>1433</v>
       </c>
-      <c r="R426" s="64" t="s">
+      <c r="R426" s="60" t="s">
         <v>1430</v>
       </c>
-      <c r="W426" s="63" t="s">
+      <c r="W426" s="59" t="s">
         <v>1422</v>
       </c>
-      <c r="X426" s="63">
+      <c r="X426" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y426" s="63">
+      <c r="Y426" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z426" s="63">
+      <c r="Z426" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH426" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI426" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A427" s="63">
+      <c r="AH426" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI426" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="59">
         <v>426</v>
       </c>
-      <c r="B427" s="63">
+      <c r="B427" s="59">
         <v>10343</v>
       </c>
-      <c r="F427" s="63">
-        <v>1</v>
-      </c>
-      <c r="G427" s="63" t="s">
+      <c r="F427" s="59">
+        <v>1</v>
+      </c>
+      <c r="G427" s="59" t="s">
         <v>1434</v>
       </c>
-      <c r="J427" s="63" t="s">
+      <c r="J427" s="59" t="s">
         <v>1406</v>
       </c>
-      <c r="L427" s="63">
+      <c r="L427" s="59">
         <v>-31</v>
       </c>
-      <c r="M427" s="63">
-        <v>0</v>
-      </c>
-      <c r="N427" s="63">
-        <v>0</v>
-      </c>
-      <c r="O427" s="63" t="s">
+      <c r="M427" s="59">
+        <v>0</v>
+      </c>
+      <c r="N427" s="59">
+        <v>0</v>
+      </c>
+      <c r="O427" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P427" s="63">
+      <c r="P427" s="59">
         <v>9800</v>
       </c>
-      <c r="Q427" s="63" t="s">
+      <c r="Q427" s="59" t="s">
         <v>1435</v>
       </c>
-      <c r="R427" s="64" t="s">
+      <c r="R427" s="60" t="s">
         <v>1430</v>
       </c>
-      <c r="W427" s="63" t="s">
+      <c r="W427" s="59" t="s">
         <v>1422</v>
       </c>
-      <c r="X427" s="63">
+      <c r="X427" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y427" s="63">
+      <c r="Y427" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z427" s="63">
+      <c r="Z427" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH427" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI427" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A428" s="63">
+      <c r="AH427" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI427" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="59">
         <v>427</v>
       </c>
-      <c r="B428" s="63">
+      <c r="B428" s="59">
         <v>10344</v>
       </c>
-      <c r="F428" s="63">
-        <v>1</v>
-      </c>
-      <c r="G428" s="63" t="s">
+      <c r="F428" s="59">
+        <v>1</v>
+      </c>
+      <c r="G428" s="59" t="s">
         <v>1436</v>
       </c>
-      <c r="J428" s="63" t="s">
+      <c r="J428" s="59" t="s">
         <v>1437</v>
       </c>
-      <c r="L428" s="63">
+      <c r="L428" s="59">
         <v>-31</v>
       </c>
-      <c r="M428" s="63">
-        <v>0</v>
-      </c>
-      <c r="N428" s="63">
-        <v>0</v>
-      </c>
-      <c r="O428" s="63" t="s">
+      <c r="M428" s="59">
+        <v>0</v>
+      </c>
+      <c r="N428" s="59">
+        <v>0</v>
+      </c>
+      <c r="O428" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P428" s="63">
+      <c r="P428" s="59">
         <v>9800</v>
       </c>
-      <c r="Q428" s="63" t="s">
+      <c r="Q428" s="59" t="s">
         <v>1438</v>
       </c>
-      <c r="R428" s="64" t="s">
+      <c r="R428" s="60" t="s">
         <v>1430</v>
       </c>
-      <c r="W428" s="63" t="s">
+      <c r="W428" s="59" t="s">
         <v>1422</v>
       </c>
-      <c r="X428" s="63">
+      <c r="X428" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y428" s="63">
+      <c r="Y428" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z428" s="63">
+      <c r="Z428" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH428" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI428" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="63">
+      <c r="AH428" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI428" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="59">
         <v>428</v>
       </c>
-      <c r="B429" s="63">
+      <c r="B429" s="59">
         <v>10345</v>
       </c>
-      <c r="F429" s="63">
-        <v>1</v>
-      </c>
-      <c r="G429" s="63" t="s">
+      <c r="F429" s="59">
+        <v>1</v>
+      </c>
+      <c r="G429" s="59" t="s">
         <v>1407</v>
       </c>
-      <c r="J429" s="63" t="s">
+      <c r="J429" s="59" t="s">
         <v>1439</v>
       </c>
-      <c r="L429" s="63">
+      <c r="L429" s="59">
         <v>-31</v>
       </c>
-      <c r="M429" s="63">
-        <v>0</v>
-      </c>
-      <c r="N429" s="63">
-        <v>0</v>
-      </c>
-      <c r="O429" s="63" t="s">
+      <c r="M429" s="59">
+        <v>0</v>
+      </c>
+      <c r="N429" s="59">
+        <v>0</v>
+      </c>
+      <c r="O429" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P429" s="63">
+      <c r="P429" s="59">
         <v>4800</v>
       </c>
-      <c r="Q429" s="63" t="s">
+      <c r="Q429" s="59" t="s">
         <v>1440</v>
       </c>
-      <c r="R429" s="64" t="s">
+      <c r="R429" s="60" t="s">
         <v>1430</v>
       </c>
-      <c r="W429" s="63" t="s">
+      <c r="W429" s="59" t="s">
         <v>1422</v>
       </c>
-      <c r="X429" s="63">
+      <c r="X429" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y429" s="63">
+      <c r="Y429" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z429" s="63">
+      <c r="Z429" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH429" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI429" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="63">
+      <c r="AH429" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI429" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="59">
         <v>429</v>
       </c>
-      <c r="B430" s="63">
+      <c r="B430" s="59">
         <v>10346</v>
       </c>
-      <c r="F430" s="63">
-        <v>1</v>
-      </c>
-      <c r="G430" s="63" t="s">
+      <c r="F430" s="59">
+        <v>1</v>
+      </c>
+      <c r="G430" s="59" t="s">
         <v>1703</v>
       </c>
-      <c r="I430" s="63" t="s">
+      <c r="I430" s="59" t="s">
         <v>1704</v>
       </c>
-      <c r="J430" s="63" t="s">
+      <c r="J430" s="59" t="s">
         <v>1705</v>
       </c>
-      <c r="L430" s="63">
+      <c r="L430" s="59">
         <v>-28</v>
       </c>
-      <c r="M430" s="63">
-        <v>0</v>
-      </c>
-      <c r="N430" s="63">
-        <v>0</v>
-      </c>
-      <c r="O430" s="63" t="s">
+      <c r="M430" s="59">
+        <v>0</v>
+      </c>
+      <c r="N430" s="59">
+        <v>0</v>
+      </c>
+      <c r="O430" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P430" s="63">
+      <c r="P430" s="59">
         <v>100</v>
       </c>
-      <c r="Q430" s="63" t="s">
+      <c r="Q430" s="59" t="s">
         <v>1401</v>
       </c>
-      <c r="R430" s="64" t="s">
+      <c r="R430" s="60" t="s">
         <v>1706</v>
       </c>
-      <c r="W430" s="63" t="s">
+      <c r="W430" s="59" t="s">
         <v>1707</v>
       </c>
-      <c r="X430" s="63">
+      <c r="X430" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y430" s="63">
+      <c r="Y430" s="59">
         <v>1581377400</v>
       </c>
-      <c r="Z430" s="63">
+      <c r="Z430" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA430" s="63">
+      <c r="AA430" s="59">
         <v>14</v>
       </c>
-      <c r="AH430" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI430" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL430" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM430" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A431" s="63">
+      <c r="AH430" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI430" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL430" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM430" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="59">
         <v>430</v>
       </c>
-      <c r="B431" s="63">
+      <c r="B431" s="59">
         <v>10347</v>
       </c>
-      <c r="F431" s="63">
-        <v>1</v>
-      </c>
-      <c r="G431" s="63" t="s">
+      <c r="F431" s="59">
+        <v>1</v>
+      </c>
+      <c r="G431" s="59" t="s">
         <v>1703</v>
       </c>
-      <c r="I431" s="63" t="s">
+      <c r="I431" s="59" t="s">
         <v>1708</v>
       </c>
-      <c r="J431" s="63" t="s">
+      <c r="J431" s="59" t="s">
         <v>1709</v>
       </c>
-      <c r="L431" s="63">
+      <c r="L431" s="59">
         <v>-28</v>
       </c>
-      <c r="M431" s="63">
-        <v>0</v>
-      </c>
-      <c r="N431" s="63">
-        <v>0</v>
-      </c>
-      <c r="O431" s="63" t="s">
+      <c r="M431" s="59">
+        <v>0</v>
+      </c>
+      <c r="N431" s="59">
+        <v>0</v>
+      </c>
+      <c r="O431" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P431" s="63">
+      <c r="P431" s="59">
         <v>300</v>
       </c>
-      <c r="Q431" s="63" t="s">
+      <c r="Q431" s="59" t="s">
         <v>1401</v>
       </c>
-      <c r="R431" s="64" t="s">
+      <c r="R431" s="60" t="s">
         <v>1710</v>
       </c>
-      <c r="W431" s="63" t="s">
+      <c r="W431" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X431" s="63">
+      <c r="X431" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y431" s="63">
+      <c r="Y431" s="59">
         <v>1581377400</v>
       </c>
-      <c r="Z431" s="63">
+      <c r="Z431" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA431" s="63">
+      <c r="AA431" s="59">
         <v>14</v>
       </c>
-      <c r="AH431" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI431" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL431" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM431" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="63">
+      <c r="AH431" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI431" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL431" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM431" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="59">
         <v>431</v>
       </c>
-      <c r="B432" s="63">
+      <c r="B432" s="59">
         <v>10348</v>
       </c>
-      <c r="F432" s="63">
-        <v>1</v>
-      </c>
-      <c r="G432" s="63" t="s">
+      <c r="F432" s="59">
+        <v>1</v>
+      </c>
+      <c r="G432" s="59" t="s">
         <v>1703</v>
       </c>
-      <c r="I432" s="63" t="s">
+      <c r="I432" s="59" t="s">
         <v>1711</v>
       </c>
-      <c r="J432" s="63" t="s">
+      <c r="J432" s="59" t="s">
         <v>1712</v>
       </c>
-      <c r="L432" s="63">
+      <c r="L432" s="59">
         <v>-28</v>
       </c>
-      <c r="M432" s="63">
-        <v>0</v>
-      </c>
-      <c r="N432" s="63">
-        <v>0</v>
-      </c>
-      <c r="O432" s="63" t="s">
+      <c r="M432" s="59">
+        <v>0</v>
+      </c>
+      <c r="N432" s="59">
+        <v>0</v>
+      </c>
+      <c r="O432" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P432" s="63">
+      <c r="P432" s="59">
         <v>600</v>
       </c>
-      <c r="Q432" s="63" t="s">
+      <c r="Q432" s="59" t="s">
         <v>1401</v>
       </c>
-      <c r="R432" s="64" t="s">
+      <c r="R432" s="60" t="s">
         <v>1713</v>
       </c>
-      <c r="W432" s="63" t="s">
+      <c r="W432" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X432" s="63">
+      <c r="X432" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y432" s="63">
+      <c r="Y432" s="59">
         <v>1581377400</v>
       </c>
-      <c r="Z432" s="63">
+      <c r="Z432" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA432" s="63">
+      <c r="AA432" s="59">
         <v>14</v>
       </c>
-      <c r="AH432" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI432" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL432" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM432" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="63">
+      <c r="AH432" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI432" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL432" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM432" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="59">
         <v>432</v>
       </c>
-      <c r="B433" s="63">
+      <c r="B433" s="59">
         <v>10349</v>
       </c>
-      <c r="F433" s="63">
-        <v>1</v>
-      </c>
-      <c r="G433" s="63" t="s">
+      <c r="F433" s="59">
+        <v>1</v>
+      </c>
+      <c r="G433" s="59" t="s">
         <v>1703</v>
       </c>
-      <c r="I433" s="63" t="s">
+      <c r="I433" s="59" t="s">
         <v>1714</v>
       </c>
-      <c r="J433" s="63" t="s">
+      <c r="J433" s="59" t="s">
         <v>1715</v>
       </c>
-      <c r="L433" s="63">
+      <c r="L433" s="59">
         <v>-28</v>
       </c>
-      <c r="M433" s="63">
-        <v>0</v>
-      </c>
-      <c r="N433" s="63">
-        <v>0</v>
-      </c>
-      <c r="O433" s="63" t="s">
+      <c r="M433" s="59">
+        <v>0</v>
+      </c>
+      <c r="N433" s="59">
+        <v>0</v>
+      </c>
+      <c r="O433" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P433" s="63">
+      <c r="P433" s="59">
         <v>600</v>
       </c>
-      <c r="Q433" s="63" t="s">
+      <c r="Q433" s="59" t="s">
         <v>1716</v>
       </c>
-      <c r="R433" s="64" t="s">
+      <c r="R433" s="60" t="s">
         <v>1717</v>
       </c>
-      <c r="W433" s="63" t="s">
+      <c r="W433" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X433" s="63">
+      <c r="X433" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y433" s="63">
+      <c r="Y433" s="59">
         <v>1581377400</v>
       </c>
-      <c r="Z433" s="63">
+      <c r="Z433" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA433" s="63">
+      <c r="AA433" s="59">
         <v>14</v>
       </c>
-      <c r="AH433" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI433" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL433" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM433" s="63">
+      <c r="AH433" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI433" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL433" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM433" s="59">
         <v>1</v>
       </c>
     </row>
@@ -39838,1930 +39967,1930 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="63">
+    <row r="447" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="59">
         <v>446</v>
       </c>
-      <c r="B447" s="63">
+      <c r="B447" s="59">
         <v>10363</v>
       </c>
-      <c r="F447" s="63">
-        <v>1</v>
-      </c>
-      <c r="G447" s="63" t="s">
+      <c r="F447" s="59">
+        <v>1</v>
+      </c>
+      <c r="G447" s="59" t="s">
         <v>1499</v>
       </c>
-      <c r="I447" s="63" t="s">
+      <c r="I447" s="59" t="s">
         <v>1500</v>
       </c>
-      <c r="J447" s="63" t="s">
+      <c r="J447" s="59" t="s">
         <v>1501</v>
       </c>
-      <c r="L447" s="63">
+      <c r="L447" s="59">
         <v>-31</v>
       </c>
-      <c r="M447" s="63">
-        <v>0</v>
-      </c>
-      <c r="N447" s="63">
-        <v>0</v>
-      </c>
-      <c r="O447" s="63" t="s">
+      <c r="M447" s="59">
+        <v>0</v>
+      </c>
+      <c r="N447" s="59">
+        <v>0</v>
+      </c>
+      <c r="O447" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P447" s="63">
+      <c r="P447" s="59">
         <v>800</v>
       </c>
-      <c r="Q447" s="63" t="s">
+      <c r="Q447" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R447" s="64" t="s">
+      <c r="R447" s="60" t="s">
         <v>1503</v>
       </c>
-      <c r="W447" s="63" t="s">
+      <c r="W447" s="59" t="s">
         <v>1156</v>
       </c>
-      <c r="X447" s="63">
+      <c r="X447" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y447" s="63">
+      <c r="Y447" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z447" s="63">
+      <c r="Z447" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA447" s="63">
+      <c r="AA447" s="59">
         <v>52</v>
       </c>
-      <c r="AH447" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI447" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL447" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM447" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="63">
+      <c r="AH447" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI447" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL447" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM447" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="59">
         <v>447</v>
       </c>
-      <c r="B448" s="63">
+      <c r="B448" s="59">
         <v>10364</v>
       </c>
-      <c r="F448" s="63">
-        <v>1</v>
-      </c>
-      <c r="G448" s="63" t="s">
+      <c r="F448" s="59">
+        <v>1</v>
+      </c>
+      <c r="G448" s="59" t="s">
         <v>1504</v>
       </c>
-      <c r="I448" s="63" t="s">
+      <c r="I448" s="59" t="s">
         <v>1505</v>
       </c>
-      <c r="J448" s="63" t="s">
+      <c r="J448" s="59" t="s">
         <v>1506</v>
       </c>
-      <c r="L448" s="63">
+      <c r="L448" s="59">
         <v>-31</v>
       </c>
-      <c r="M448" s="63">
-        <v>0</v>
-      </c>
-      <c r="N448" s="63">
-        <v>0</v>
-      </c>
-      <c r="O448" s="63" t="s">
+      <c r="M448" s="59">
+        <v>0</v>
+      </c>
+      <c r="N448" s="59">
+        <v>0</v>
+      </c>
+      <c r="O448" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P448" s="63">
+      <c r="P448" s="59">
         <v>800</v>
       </c>
-      <c r="Q448" s="63" t="s">
+      <c r="Q448" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R448" s="64" t="s">
+      <c r="R448" s="60" t="s">
         <v>1507</v>
       </c>
-      <c r="W448" s="63" t="s">
+      <c r="W448" s="59" t="s">
         <v>1508</v>
       </c>
-      <c r="X448" s="63">
+      <c r="X448" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y448" s="63">
+      <c r="Y448" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z448" s="63">
+      <c r="Z448" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH448" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI448" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL448" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM448" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="63">
+      <c r="AH448" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI448" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL448" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM448" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="59">
         <v>448</v>
       </c>
-      <c r="B449" s="63">
+      <c r="B449" s="59">
         <v>10365</v>
       </c>
-      <c r="F449" s="63">
-        <v>1</v>
-      </c>
-      <c r="G449" s="63" t="s">
+      <c r="F449" s="59">
+        <v>1</v>
+      </c>
+      <c r="G449" s="59" t="s">
         <v>1509</v>
       </c>
-      <c r="I449" s="63" t="s">
+      <c r="I449" s="59" t="s">
         <v>1510</v>
       </c>
-      <c r="J449" s="63" t="s">
+      <c r="J449" s="59" t="s">
         <v>1511</v>
       </c>
-      <c r="L449" s="63">
+      <c r="L449" s="59">
         <v>-31</v>
       </c>
-      <c r="M449" s="63">
-        <v>0</v>
-      </c>
-      <c r="N449" s="63">
-        <v>0</v>
-      </c>
-      <c r="O449" s="63" t="s">
+      <c r="M449" s="59">
+        <v>0</v>
+      </c>
+      <c r="N449" s="59">
+        <v>0</v>
+      </c>
+      <c r="O449" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P449" s="63">
+      <c r="P449" s="59">
         <v>800</v>
       </c>
-      <c r="Q449" s="63" t="s">
+      <c r="Q449" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R449" s="64" t="s">
+      <c r="R449" s="60" t="s">
         <v>1512</v>
       </c>
-      <c r="W449" s="63" t="s">
+      <c r="W449" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X449" s="63">
+      <c r="X449" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y449" s="63">
+      <c r="Y449" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z449" s="63">
+      <c r="Z449" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA449" s="63">
+      <c r="AA449" s="59">
         <v>53</v>
       </c>
-      <c r="AH449" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI449" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL449" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM449" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="63">
+      <c r="AH449" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI449" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL449" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM449" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="59">
         <v>449</v>
       </c>
-      <c r="B450" s="63">
+      <c r="B450" s="59">
         <v>10366</v>
       </c>
-      <c r="F450" s="63">
-        <v>1</v>
-      </c>
-      <c r="G450" s="63" t="s">
+      <c r="F450" s="59">
+        <v>1</v>
+      </c>
+      <c r="G450" s="59" t="s">
         <v>1513</v>
       </c>
-      <c r="I450" s="63" t="s">
+      <c r="I450" s="59" t="s">
         <v>1514</v>
       </c>
-      <c r="J450" s="63" t="s">
+      <c r="J450" s="59" t="s">
         <v>1515</v>
       </c>
-      <c r="L450" s="63">
+      <c r="L450" s="59">
         <v>-31</v>
       </c>
-      <c r="M450" s="63">
-        <v>0</v>
-      </c>
-      <c r="N450" s="63">
-        <v>0</v>
-      </c>
-      <c r="O450" s="63" t="s">
+      <c r="M450" s="59">
+        <v>0</v>
+      </c>
+      <c r="N450" s="59">
+        <v>0</v>
+      </c>
+      <c r="O450" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P450" s="63">
+      <c r="P450" s="59">
         <v>3800</v>
       </c>
-      <c r="Q450" s="63" t="s">
+      <c r="Q450" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R450" s="64" t="s">
+      <c r="R450" s="60" t="s">
         <v>1516</v>
       </c>
-      <c r="W450" s="63" t="s">
+      <c r="W450" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X450" s="63">
+      <c r="X450" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y450" s="63">
+      <c r="Y450" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z450" s="63">
+      <c r="Z450" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA450" s="63">
+      <c r="AA450" s="59">
         <v>54</v>
       </c>
-      <c r="AH450" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI450" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL450" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM450" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="63">
+      <c r="AH450" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI450" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL450" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM450" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="59">
         <v>450</v>
       </c>
-      <c r="B451" s="63">
+      <c r="B451" s="59">
         <v>10367</v>
       </c>
-      <c r="F451" s="63">
-        <v>1</v>
-      </c>
-      <c r="G451" s="63" t="s">
+      <c r="F451" s="59">
+        <v>1</v>
+      </c>
+      <c r="G451" s="59" t="s">
         <v>1517</v>
       </c>
-      <c r="I451" s="63" t="s">
+      <c r="I451" s="59" t="s">
         <v>1518</v>
       </c>
-      <c r="J451" s="63" t="s">
+      <c r="J451" s="59" t="s">
         <v>1519</v>
       </c>
-      <c r="L451" s="63">
+      <c r="L451" s="59">
         <v>-31</v>
       </c>
-      <c r="M451" s="63">
-        <v>0</v>
-      </c>
-      <c r="N451" s="63">
-        <v>0</v>
-      </c>
-      <c r="O451" s="63" t="s">
+      <c r="M451" s="59">
+        <v>0</v>
+      </c>
+      <c r="N451" s="59">
+        <v>0</v>
+      </c>
+      <c r="O451" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P451" s="63">
+      <c r="P451" s="59">
         <v>3800</v>
       </c>
-      <c r="Q451" s="63" t="s">
+      <c r="Q451" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R451" s="64" t="s">
+      <c r="R451" s="60" t="s">
         <v>1520</v>
       </c>
-      <c r="W451" s="63" t="s">
+      <c r="W451" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X451" s="63">
+      <c r="X451" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y451" s="63">
+      <c r="Y451" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z451" s="63">
+      <c r="Z451" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH451" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI451" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL451" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM451" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:39" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="63">
+      <c r="AH451" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI451" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL451" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM451" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:39" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="59">
         <v>451</v>
       </c>
-      <c r="B452" s="63">
+      <c r="B452" s="59">
         <v>10368</v>
       </c>
-      <c r="F452" s="63">
-        <v>1</v>
-      </c>
-      <c r="G452" s="63" t="s">
+      <c r="F452" s="59">
+        <v>1</v>
+      </c>
+      <c r="G452" s="59" t="s">
         <v>1521</v>
       </c>
-      <c r="I452" s="63" t="s">
+      <c r="I452" s="59" t="s">
         <v>1522</v>
       </c>
-      <c r="J452" s="63" t="s">
+      <c r="J452" s="59" t="s">
         <v>1523</v>
       </c>
-      <c r="L452" s="63">
+      <c r="L452" s="59">
         <v>-31</v>
       </c>
-      <c r="M452" s="63">
-        <v>0</v>
-      </c>
-      <c r="N452" s="63">
-        <v>0</v>
-      </c>
-      <c r="O452" s="63" t="s">
+      <c r="M452" s="59">
+        <v>0</v>
+      </c>
+      <c r="N452" s="59">
+        <v>0</v>
+      </c>
+      <c r="O452" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P452" s="63">
+      <c r="P452" s="59">
         <v>3800</v>
       </c>
-      <c r="Q452" s="63" t="s">
+      <c r="Q452" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R452" s="64" t="s">
+      <c r="R452" s="60" t="s">
         <v>1524</v>
       </c>
-      <c r="W452" s="63" t="s">
+      <c r="W452" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X452" s="63">
+      <c r="X452" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y452" s="63">
+      <c r="Y452" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z452" s="63">
+      <c r="Z452" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA452" s="63">
+      <c r="AA452" s="59">
         <v>55</v>
       </c>
-      <c r="AH452" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI452" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL452" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM452" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A453" s="63">
+      <c r="AH452" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI452" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL452" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM452" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="59">
         <v>452</v>
       </c>
-      <c r="B453" s="63">
+      <c r="B453" s="59">
         <v>10369</v>
       </c>
-      <c r="F453" s="63">
-        <v>1</v>
-      </c>
-      <c r="G453" s="63" t="s">
+      <c r="F453" s="59">
+        <v>1</v>
+      </c>
+      <c r="G453" s="59" t="s">
         <v>1525</v>
       </c>
-      <c r="I453" s="63" t="s">
+      <c r="I453" s="59" t="s">
         <v>1526</v>
       </c>
-      <c r="J453" s="63" t="s">
+      <c r="J453" s="59" t="s">
         <v>1527</v>
       </c>
-      <c r="L453" s="63">
+      <c r="L453" s="59">
         <v>-31</v>
       </c>
-      <c r="M453" s="63">
-        <v>0</v>
-      </c>
-      <c r="N453" s="63">
-        <v>0</v>
-      </c>
-      <c r="O453" s="63" t="s">
+      <c r="M453" s="59">
+        <v>0</v>
+      </c>
+      <c r="N453" s="59">
+        <v>0</v>
+      </c>
+      <c r="O453" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P453" s="63">
+      <c r="P453" s="59">
         <v>9800</v>
       </c>
-      <c r="Q453" s="63" t="s">
+      <c r="Q453" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R453" s="64" t="s">
+      <c r="R453" s="60" t="s">
         <v>1528</v>
       </c>
-      <c r="W453" s="63" t="s">
+      <c r="W453" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X453" s="63">
+      <c r="X453" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y453" s="63">
+      <c r="Y453" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z453" s="63">
+      <c r="Z453" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA453" s="63">
+      <c r="AA453" s="59">
         <v>56</v>
       </c>
-      <c r="AH453" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI453" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL453" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM453" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A454" s="63">
+      <c r="AH453" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI453" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL453" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM453" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="59">
         <v>453</v>
       </c>
-      <c r="B454" s="63">
+      <c r="B454" s="59">
         <v>10370</v>
       </c>
-      <c r="F454" s="63">
-        <v>1</v>
-      </c>
-      <c r="G454" s="63" t="s">
+      <c r="F454" s="59">
+        <v>1</v>
+      </c>
+      <c r="G454" s="59" t="s">
         <v>1529</v>
       </c>
-      <c r="I454" s="63" t="s">
+      <c r="I454" s="59" t="s">
         <v>1530</v>
       </c>
-      <c r="J454" s="63" t="s">
+      <c r="J454" s="59" t="s">
         <v>1531</v>
       </c>
-      <c r="L454" s="63">
+      <c r="L454" s="59">
         <v>-31</v>
       </c>
-      <c r="M454" s="63">
-        <v>0</v>
-      </c>
-      <c r="N454" s="63">
-        <v>0</v>
-      </c>
-      <c r="O454" s="63" t="s">
+      <c r="M454" s="59">
+        <v>0</v>
+      </c>
+      <c r="N454" s="59">
+        <v>0</v>
+      </c>
+      <c r="O454" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P454" s="63">
+      <c r="P454" s="59">
         <v>9800</v>
       </c>
-      <c r="Q454" s="63" t="s">
+      <c r="Q454" s="59" t="s">
         <v>991</v>
       </c>
-      <c r="R454" s="64" t="s">
+      <c r="R454" s="60" t="s">
         <v>1532</v>
       </c>
-      <c r="W454" s="63" t="s">
+      <c r="W454" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X454" s="63">
+      <c r="X454" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y454" s="63">
+      <c r="Y454" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z454" s="63">
+      <c r="Z454" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH454" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI454" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL454" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM454" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A455" s="63">
+      <c r="AH454" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI454" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL454" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM454" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="59">
         <v>454</v>
       </c>
-      <c r="B455" s="63">
+      <c r="B455" s="59">
         <v>10371</v>
       </c>
-      <c r="F455" s="63">
-        <v>1</v>
-      </c>
-      <c r="G455" s="63" t="s">
+      <c r="F455" s="59">
+        <v>1</v>
+      </c>
+      <c r="G455" s="59" t="s">
         <v>1533</v>
       </c>
-      <c r="I455" s="63" t="s">
+      <c r="I455" s="59" t="s">
         <v>1534</v>
       </c>
-      <c r="J455" s="63" t="s">
+      <c r="J455" s="59" t="s">
         <v>1535</v>
       </c>
-      <c r="L455" s="63">
+      <c r="L455" s="59">
         <v>-31</v>
       </c>
-      <c r="M455" s="63">
-        <v>0</v>
-      </c>
-      <c r="N455" s="63">
-        <v>0</v>
-      </c>
-      <c r="O455" s="63" t="s">
+      <c r="M455" s="59">
+        <v>0</v>
+      </c>
+      <c r="N455" s="59">
+        <v>0</v>
+      </c>
+      <c r="O455" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P455" s="63">
+      <c r="P455" s="59">
         <v>9800</v>
       </c>
-      <c r="Q455" s="63" t="s">
+      <c r="Q455" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R455" s="64" t="s">
+      <c r="R455" s="60" t="s">
         <v>1668</v>
       </c>
-      <c r="W455" s="63" t="s">
+      <c r="W455" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X455" s="63">
+      <c r="X455" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y455" s="63">
+      <c r="Y455" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z455" s="63">
+      <c r="Z455" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA455" s="63">
+      <c r="AA455" s="59">
         <v>57</v>
       </c>
-      <c r="AH455" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI455" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL455" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM455" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="63">
+      <c r="AH455" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI455" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL455" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM455" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="59">
         <v>455</v>
       </c>
-      <c r="B456" s="63">
+      <c r="B456" s="59">
         <v>10372</v>
       </c>
-      <c r="F456" s="63">
-        <v>1</v>
-      </c>
-      <c r="G456" s="63" t="s">
+      <c r="F456" s="59">
+        <v>1</v>
+      </c>
+      <c r="G456" s="59" t="s">
         <v>1536</v>
       </c>
-      <c r="I456" s="63" t="s">
+      <c r="I456" s="59" t="s">
         <v>1537</v>
       </c>
-      <c r="J456" s="63" t="s">
+      <c r="J456" s="59" t="s">
         <v>1538</v>
       </c>
-      <c r="L456" s="63">
+      <c r="L456" s="59">
         <v>-31</v>
       </c>
-      <c r="M456" s="63">
-        <v>0</v>
-      </c>
-      <c r="N456" s="63">
-        <v>0</v>
-      </c>
-      <c r="O456" s="63" t="s">
+      <c r="M456" s="59">
+        <v>0</v>
+      </c>
+      <c r="N456" s="59">
+        <v>0</v>
+      </c>
+      <c r="O456" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P456" s="63">
+      <c r="P456" s="59">
         <v>19800</v>
       </c>
-      <c r="Q456" s="63" t="s">
+      <c r="Q456" s="59" t="s">
         <v>991</v>
       </c>
-      <c r="R456" s="64" t="s">
+      <c r="R456" s="60" t="s">
         <v>1539</v>
       </c>
-      <c r="W456" s="63" t="s">
+      <c r="W456" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X456" s="63">
+      <c r="X456" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y456" s="63">
+      <c r="Y456" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z456" s="63">
+      <c r="Z456" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA456" s="63">
+      <c r="AA456" s="59">
         <v>58</v>
       </c>
-      <c r="AH456" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI456" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL456" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM456" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="63">
+      <c r="AH456" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI456" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL456" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM456" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="59">
         <v>456</v>
       </c>
-      <c r="B457" s="63">
+      <c r="B457" s="59">
         <v>10373</v>
       </c>
-      <c r="F457" s="63">
-        <v>1</v>
-      </c>
-      <c r="G457" s="63" t="s">
+      <c r="F457" s="59">
+        <v>1</v>
+      </c>
+      <c r="G457" s="59" t="s">
         <v>1540</v>
       </c>
-      <c r="I457" s="63" t="s">
+      <c r="I457" s="59" t="s">
         <v>1541</v>
       </c>
-      <c r="J457" s="63" t="s">
+      <c r="J457" s="59" t="s">
         <v>1542</v>
       </c>
-      <c r="L457" s="63">
+      <c r="L457" s="59">
         <v>-31</v>
       </c>
-      <c r="M457" s="63">
-        <v>0</v>
-      </c>
-      <c r="N457" s="63">
-        <v>0</v>
-      </c>
-      <c r="O457" s="63" t="s">
+      <c r="M457" s="59">
+        <v>0</v>
+      </c>
+      <c r="N457" s="59">
+        <v>0</v>
+      </c>
+      <c r="O457" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P457" s="63">
+      <c r="P457" s="59">
         <v>19800</v>
       </c>
-      <c r="Q457" s="63" t="s">
+      <c r="Q457" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R457" s="64" t="s">
+      <c r="R457" s="60" t="s">
         <v>1543</v>
       </c>
-      <c r="W457" s="63" t="s">
+      <c r="W457" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X457" s="63">
+      <c r="X457" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y457" s="63">
+      <c r="Y457" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z457" s="63">
+      <c r="Z457" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH457" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI457" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL457" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM457" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="63">
+      <c r="AH457" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI457" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL457" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM457" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="59">
         <v>457</v>
       </c>
-      <c r="B458" s="63">
+      <c r="B458" s="59">
         <v>10374</v>
       </c>
-      <c r="F458" s="63">
-        <v>1</v>
-      </c>
-      <c r="G458" s="63" t="s">
+      <c r="F458" s="59">
+        <v>1</v>
+      </c>
+      <c r="G458" s="59" t="s">
         <v>1544</v>
       </c>
-      <c r="I458" s="63" t="s">
+      <c r="I458" s="59" t="s">
         <v>1545</v>
       </c>
-      <c r="J458" s="63" t="s">
+      <c r="J458" s="59" t="s">
         <v>1546</v>
       </c>
-      <c r="L458" s="63">
+      <c r="L458" s="59">
         <v>-31</v>
       </c>
-      <c r="M458" s="63">
-        <v>0</v>
-      </c>
-      <c r="N458" s="63">
-        <v>0</v>
-      </c>
-      <c r="O458" s="63" t="s">
+      <c r="M458" s="59">
+        <v>0</v>
+      </c>
+      <c r="N458" s="59">
+        <v>0</v>
+      </c>
+      <c r="O458" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P458" s="63">
+      <c r="P458" s="59">
         <v>19800</v>
       </c>
-      <c r="Q458" s="63" t="s">
+      <c r="Q458" s="59" t="s">
         <v>991</v>
       </c>
-      <c r="R458" s="64" t="s">
+      <c r="R458" s="60" t="s">
         <v>1547</v>
       </c>
-      <c r="W458" s="63" t="s">
+      <c r="W458" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X458" s="63">
+      <c r="X458" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y458" s="63">
+      <c r="Y458" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z458" s="63">
+      <c r="Z458" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA458" s="63">
+      <c r="AA458" s="59">
         <v>59</v>
       </c>
-      <c r="AH458" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI458" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL458" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM458" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="63">
+      <c r="AH458" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI458" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL458" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM458" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="59">
         <v>458</v>
       </c>
-      <c r="B459" s="63">
+      <c r="B459" s="59">
         <v>10375</v>
       </c>
-      <c r="F459" s="63">
-        <v>1</v>
-      </c>
-      <c r="G459" s="63" t="s">
+      <c r="F459" s="59">
+        <v>1</v>
+      </c>
+      <c r="G459" s="59" t="s">
         <v>1548</v>
       </c>
-      <c r="I459" s="63" t="s">
+      <c r="I459" s="59" t="s">
         <v>1549</v>
       </c>
-      <c r="J459" s="63" t="s">
+      <c r="J459" s="59" t="s">
         <v>1550</v>
       </c>
-      <c r="L459" s="63">
+      <c r="L459" s="59">
         <v>-31</v>
       </c>
-      <c r="M459" s="63">
-        <v>0</v>
-      </c>
-      <c r="N459" s="63">
-        <v>0</v>
-      </c>
-      <c r="O459" s="63" t="s">
+      <c r="M459" s="59">
+        <v>0</v>
+      </c>
+      <c r="N459" s="59">
+        <v>0</v>
+      </c>
+      <c r="O459" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P459" s="63">
+      <c r="P459" s="59">
         <v>49800</v>
       </c>
-      <c r="Q459" s="63" t="s">
+      <c r="Q459" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R459" s="64" t="s">
+      <c r="R459" s="60" t="s">
         <v>1551</v>
       </c>
-      <c r="W459" s="63" t="s">
+      <c r="W459" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X459" s="63">
+      <c r="X459" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y459" s="63">
+      <c r="Y459" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z459" s="63">
+      <c r="Z459" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA459" s="63">
+      <c r="AA459" s="59">
         <v>60</v>
       </c>
-      <c r="AH459" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI459" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL459" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM459" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A460" s="63">
+      <c r="AH459" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI459" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL459" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM459" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="59">
         <v>459</v>
       </c>
-      <c r="B460" s="63">
+      <c r="B460" s="59">
         <v>10376</v>
       </c>
-      <c r="F460" s="63">
-        <v>1</v>
-      </c>
-      <c r="G460" s="63" t="s">
+      <c r="F460" s="59">
+        <v>1</v>
+      </c>
+      <c r="G460" s="59" t="s">
         <v>1552</v>
       </c>
-      <c r="I460" s="63" t="s">
+      <c r="I460" s="59" t="s">
         <v>1553</v>
       </c>
-      <c r="J460" s="63" t="s">
+      <c r="J460" s="59" t="s">
         <v>1554</v>
       </c>
-      <c r="L460" s="63">
+      <c r="L460" s="59">
         <v>-31</v>
       </c>
-      <c r="M460" s="63">
-        <v>0</v>
-      </c>
-      <c r="N460" s="63">
-        <v>0</v>
-      </c>
-      <c r="O460" s="63" t="s">
+      <c r="M460" s="59">
+        <v>0</v>
+      </c>
+      <c r="N460" s="59">
+        <v>0</v>
+      </c>
+      <c r="O460" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P460" s="63">
+      <c r="P460" s="59">
         <v>49800</v>
       </c>
-      <c r="Q460" s="63" t="s">
+      <c r="Q460" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R460" s="64" t="s">
+      <c r="R460" s="60" t="s">
         <v>1555</v>
       </c>
-      <c r="W460" s="63" t="s">
+      <c r="W460" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X460" s="63">
+      <c r="X460" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y460" s="63">
+      <c r="Y460" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z460" s="63">
+      <c r="Z460" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH460" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI460" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL460" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM460" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A461" s="63">
+      <c r="AH460" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI460" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL460" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM460" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="59">
         <v>460</v>
       </c>
-      <c r="B461" s="63">
+      <c r="B461" s="59">
         <v>10377</v>
       </c>
-      <c r="F461" s="63">
-        <v>1</v>
-      </c>
-      <c r="G461" s="63" t="s">
+      <c r="F461" s="59">
+        <v>1</v>
+      </c>
+      <c r="G461" s="59" t="s">
         <v>1556</v>
       </c>
-      <c r="I461" s="63" t="s">
+      <c r="I461" s="59" t="s">
         <v>1557</v>
       </c>
-      <c r="J461" s="63" t="s">
+      <c r="J461" s="59" t="s">
         <v>1558</v>
       </c>
-      <c r="L461" s="63">
+      <c r="L461" s="59">
         <v>-31</v>
       </c>
-      <c r="M461" s="63">
-        <v>0</v>
-      </c>
-      <c r="N461" s="63">
-        <v>0</v>
-      </c>
-      <c r="O461" s="63" t="s">
+      <c r="M461" s="59">
+        <v>0</v>
+      </c>
+      <c r="N461" s="59">
+        <v>0</v>
+      </c>
+      <c r="O461" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P461" s="63">
+      <c r="P461" s="59">
         <v>49800</v>
       </c>
-      <c r="Q461" s="63" t="s">
+      <c r="Q461" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R461" s="64" t="s">
+      <c r="R461" s="60" t="s">
         <v>1559</v>
       </c>
-      <c r="W461" s="63" t="s">
+      <c r="W461" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X461" s="63">
+      <c r="X461" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y461" s="63">
+      <c r="Y461" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z461" s="63">
+      <c r="Z461" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA461" s="63">
+      <c r="AA461" s="59">
         <v>61</v>
       </c>
-      <c r="AH461" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI461" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL461" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM461" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="63">
+      <c r="AH461" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI461" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL461" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM461" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="59">
         <v>461</v>
       </c>
-      <c r="B462" s="63">
+      <c r="B462" s="59">
         <v>10378</v>
       </c>
-      <c r="F462" s="63">
-        <v>1</v>
-      </c>
-      <c r="G462" s="63" t="s">
+      <c r="F462" s="59">
+        <v>1</v>
+      </c>
+      <c r="G462" s="59" t="s">
         <v>1560</v>
       </c>
-      <c r="I462" s="63" t="s">
+      <c r="I462" s="59" t="s">
         <v>1561</v>
       </c>
-      <c r="J462" s="63" t="s">
+      <c r="J462" s="59" t="s">
         <v>1562</v>
       </c>
-      <c r="L462" s="63">
+      <c r="L462" s="59">
         <v>-31</v>
       </c>
-      <c r="M462" s="63">
-        <v>0</v>
-      </c>
-      <c r="N462" s="63">
-        <v>0</v>
-      </c>
-      <c r="O462" s="63" t="s">
+      <c r="M462" s="59">
+        <v>0</v>
+      </c>
+      <c r="N462" s="59">
+        <v>0</v>
+      </c>
+      <c r="O462" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P462" s="63">
+      <c r="P462" s="59">
         <v>99800</v>
       </c>
-      <c r="Q462" s="63" t="s">
+      <c r="Q462" s="59" t="s">
         <v>991</v>
       </c>
-      <c r="R462" s="64" t="s">
+      <c r="R462" s="60" t="s">
         <v>1563</v>
       </c>
-      <c r="W462" s="63" t="s">
+      <c r="W462" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X462" s="63">
+      <c r="X462" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y462" s="63">
+      <c r="Y462" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z462" s="63">
+      <c r="Z462" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA462" s="63">
+      <c r="AA462" s="59">
         <v>62</v>
       </c>
-      <c r="AH462" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI462" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL462" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM462" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A463" s="63">
+      <c r="AH462" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI462" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL462" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM462" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="59">
         <v>462</v>
       </c>
-      <c r="B463" s="63">
+      <c r="B463" s="59">
         <v>10379</v>
       </c>
-      <c r="F463" s="63">
-        <v>1</v>
-      </c>
-      <c r="G463" s="63" t="s">
+      <c r="F463" s="59">
+        <v>1</v>
+      </c>
+      <c r="G463" s="59" t="s">
         <v>1564</v>
       </c>
-      <c r="I463" s="63" t="s">
+      <c r="I463" s="59" t="s">
         <v>1565</v>
       </c>
-      <c r="J463" s="63" t="s">
+      <c r="J463" s="59" t="s">
         <v>1566</v>
       </c>
-      <c r="L463" s="63">
+      <c r="L463" s="59">
         <v>-31</v>
       </c>
-      <c r="M463" s="63">
-        <v>0</v>
-      </c>
-      <c r="N463" s="63">
-        <v>0</v>
-      </c>
-      <c r="O463" s="63" t="s">
+      <c r="M463" s="59">
+        <v>0</v>
+      </c>
+      <c r="N463" s="59">
+        <v>0</v>
+      </c>
+      <c r="O463" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P463" s="63">
+      <c r="P463" s="59">
         <v>99800</v>
       </c>
-      <c r="Q463" s="63" t="s">
+      <c r="Q463" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R463" s="64" t="s">
+      <c r="R463" s="60" t="s">
         <v>1567</v>
       </c>
-      <c r="W463" s="63" t="s">
+      <c r="W463" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X463" s="63">
+      <c r="X463" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y463" s="63">
+      <c r="Y463" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z463" s="63">
+      <c r="Z463" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH463" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI463" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL463" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM463" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="63">
+      <c r="AH463" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI463" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL463" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM463" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="59">
         <v>463</v>
       </c>
-      <c r="B464" s="63">
+      <c r="B464" s="59">
         <v>10380</v>
       </c>
-      <c r="F464" s="63">
-        <v>1</v>
-      </c>
-      <c r="G464" s="63" t="s">
+      <c r="F464" s="59">
+        <v>1</v>
+      </c>
+      <c r="G464" s="59" t="s">
         <v>1568</v>
       </c>
-      <c r="I464" s="63" t="s">
+      <c r="I464" s="59" t="s">
         <v>1569</v>
       </c>
-      <c r="J464" s="63" t="s">
+      <c r="J464" s="59" t="s">
         <v>1570</v>
       </c>
-      <c r="L464" s="63">
+      <c r="L464" s="59">
         <v>-31</v>
       </c>
-      <c r="M464" s="63">
-        <v>0</v>
-      </c>
-      <c r="N464" s="63">
-        <v>0</v>
-      </c>
-      <c r="O464" s="63" t="s">
+      <c r="M464" s="59">
+        <v>0</v>
+      </c>
+      <c r="N464" s="59">
+        <v>0</v>
+      </c>
+      <c r="O464" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P464" s="63">
+      <c r="P464" s="59">
         <v>99800</v>
       </c>
-      <c r="Q464" s="63" t="s">
+      <c r="Q464" s="59" t="s">
         <v>991</v>
       </c>
-      <c r="R464" s="64" t="s">
+      <c r="R464" s="60" t="s">
         <v>1571</v>
       </c>
-      <c r="W464" s="63" t="s">
+      <c r="W464" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X464" s="63">
+      <c r="X464" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y464" s="63">
+      <c r="Y464" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z464" s="63">
+      <c r="Z464" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA464" s="63">
+      <c r="AA464" s="59">
         <v>63</v>
       </c>
-      <c r="AH464" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI464" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL464" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM464" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="63">
+      <c r="AH464" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI464" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL464" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM464" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="59">
         <v>464</v>
       </c>
-      <c r="B465" s="63">
+      <c r="B465" s="59">
         <v>10381</v>
       </c>
-      <c r="F465" s="63">
-        <v>1</v>
-      </c>
-      <c r="G465" s="63" t="s">
+      <c r="F465" s="59">
+        <v>1</v>
+      </c>
+      <c r="G465" s="59" t="s">
         <v>1572</v>
       </c>
-      <c r="I465" s="63" t="s">
+      <c r="I465" s="59" t="s">
         <v>1573</v>
       </c>
-      <c r="J465" s="63" t="s">
+      <c r="J465" s="59" t="s">
         <v>1574</v>
       </c>
-      <c r="L465" s="63">
+      <c r="L465" s="59">
         <v>-31</v>
       </c>
-      <c r="M465" s="63">
-        <v>0</v>
-      </c>
-      <c r="N465" s="63">
-        <v>0</v>
-      </c>
-      <c r="O465" s="63" t="s">
+      <c r="M465" s="59">
+        <v>0</v>
+      </c>
+      <c r="N465" s="59">
+        <v>0</v>
+      </c>
+      <c r="O465" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P465" s="63">
+      <c r="P465" s="59">
         <v>249800</v>
       </c>
-      <c r="Q465" s="63" t="s">
+      <c r="Q465" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R465" s="64" t="s">
+      <c r="R465" s="60" t="s">
         <v>1575</v>
       </c>
-      <c r="W465" s="63" t="s">
+      <c r="W465" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X465" s="63">
+      <c r="X465" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y465" s="63">
+      <c r="Y465" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z465" s="63">
+      <c r="Z465" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA465" s="63">
+      <c r="AA465" s="59">
         <v>64</v>
       </c>
-      <c r="AH465" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI465" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL465" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM465" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="63">
+      <c r="AH465" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI465" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL465" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM465" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="59">
         <v>465</v>
       </c>
-      <c r="B466" s="63">
+      <c r="B466" s="59">
         <v>10382</v>
       </c>
-      <c r="F466" s="63">
-        <v>1</v>
-      </c>
-      <c r="G466" s="63" t="s">
+      <c r="F466" s="59">
+        <v>1</v>
+      </c>
+      <c r="G466" s="59" t="s">
         <v>1576</v>
       </c>
-      <c r="I466" s="63" t="s">
+      <c r="I466" s="59" t="s">
         <v>1577</v>
       </c>
-      <c r="J466" s="63" t="s">
+      <c r="J466" s="59" t="s">
         <v>1578</v>
       </c>
-      <c r="L466" s="63">
+      <c r="L466" s="59">
         <v>-31</v>
       </c>
-      <c r="M466" s="63">
-        <v>0</v>
-      </c>
-      <c r="N466" s="63">
-        <v>0</v>
-      </c>
-      <c r="O466" s="63" t="s">
+      <c r="M466" s="59">
+        <v>0</v>
+      </c>
+      <c r="N466" s="59">
+        <v>0</v>
+      </c>
+      <c r="O466" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P466" s="63">
+      <c r="P466" s="59">
         <v>249800</v>
       </c>
-      <c r="Q466" s="63" t="s">
+      <c r="Q466" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R466" s="64" t="s">
+      <c r="R466" s="60" t="s">
         <v>1579</v>
       </c>
-      <c r="W466" s="63" t="s">
+      <c r="W466" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X466" s="63">
+      <c r="X466" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y466" s="63">
+      <c r="Y466" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z466" s="63">
+      <c r="Z466" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH466" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI466" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL466" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM466" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="63">
+      <c r="AH466" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI466" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL466" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM466" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="59">
         <v>466</v>
       </c>
-      <c r="B467" s="63">
+      <c r="B467" s="59">
         <v>10383</v>
       </c>
-      <c r="F467" s="63">
-        <v>1</v>
-      </c>
-      <c r="G467" s="63" t="s">
+      <c r="F467" s="59">
+        <v>1</v>
+      </c>
+      <c r="G467" s="59" t="s">
         <v>1580</v>
       </c>
-      <c r="I467" s="63" t="s">
+      <c r="I467" s="59" t="s">
         <v>1581</v>
       </c>
-      <c r="J467" s="63" t="s">
+      <c r="J467" s="59" t="s">
         <v>1582</v>
       </c>
-      <c r="L467" s="63">
+      <c r="L467" s="59">
         <v>-31</v>
       </c>
-      <c r="M467" s="63">
-        <v>0</v>
-      </c>
-      <c r="N467" s="63">
-        <v>0</v>
-      </c>
-      <c r="O467" s="63" t="s">
+      <c r="M467" s="59">
+        <v>0</v>
+      </c>
+      <c r="N467" s="59">
+        <v>0</v>
+      </c>
+      <c r="O467" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P467" s="63">
+      <c r="P467" s="59">
         <v>249800</v>
       </c>
-      <c r="Q467" s="63" t="s">
+      <c r="Q467" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R467" s="64" t="s">
+      <c r="R467" s="60" t="s">
         <v>1583</v>
       </c>
-      <c r="W467" s="63" t="s">
+      <c r="W467" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X467" s="63">
+      <c r="X467" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y467" s="63">
+      <c r="Y467" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z467" s="63">
+      <c r="Z467" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA467" s="63">
+      <c r="AA467" s="59">
         <v>65</v>
       </c>
-      <c r="AH467" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI467" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL467" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM467" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A468" s="63">
+      <c r="AH467" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI467" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL467" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM467" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="59">
         <v>467</v>
       </c>
-      <c r="B468" s="63">
+      <c r="B468" s="59">
         <v>10384</v>
       </c>
-      <c r="F468" s="63">
-        <v>1</v>
-      </c>
-      <c r="G468" s="63" t="s">
+      <c r="F468" s="59">
+        <v>1</v>
+      </c>
+      <c r="G468" s="59" t="s">
         <v>1584</v>
       </c>
-      <c r="I468" s="63" t="s">
+      <c r="I468" s="59" t="s">
         <v>1585</v>
       </c>
-      <c r="J468" s="63" t="s">
+      <c r="J468" s="59" t="s">
         <v>1586</v>
       </c>
-      <c r="L468" s="63">
+      <c r="L468" s="59">
         <v>-31</v>
       </c>
-      <c r="M468" s="63">
-        <v>0</v>
-      </c>
-      <c r="N468" s="63">
-        <v>0</v>
-      </c>
-      <c r="O468" s="63" t="s">
+      <c r="M468" s="59">
+        <v>0</v>
+      </c>
+      <c r="N468" s="59">
+        <v>0</v>
+      </c>
+      <c r="O468" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P468" s="63">
+      <c r="P468" s="59">
         <v>600</v>
       </c>
-      <c r="Q468" s="63" t="s">
+      <c r="Q468" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R468" s="64" t="s">
+      <c r="R468" s="60" t="s">
         <v>1587</v>
       </c>
-      <c r="W468" s="63" t="s">
+      <c r="W468" s="59" t="s">
         <v>1589</v>
       </c>
-      <c r="X468" s="63">
+      <c r="X468" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y468" s="63">
+      <c r="Y468" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z468" s="63">
+      <c r="Z468" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH468" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI468" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL468" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM468" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A469" s="63">
+      <c r="AH468" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI468" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL468" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM468" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="59">
         <v>468</v>
       </c>
-      <c r="B469" s="63">
+      <c r="B469" s="59">
         <v>10385</v>
       </c>
-      <c r="F469" s="63">
-        <v>1</v>
-      </c>
-      <c r="G469" s="63" t="s">
+      <c r="F469" s="59">
+        <v>1</v>
+      </c>
+      <c r="G469" s="59" t="s">
         <v>1590</v>
       </c>
-      <c r="I469" s="63" t="s">
+      <c r="I469" s="59" t="s">
         <v>1591</v>
       </c>
-      <c r="J469" s="63" t="s">
+      <c r="J469" s="59" t="s">
         <v>1592</v>
       </c>
-      <c r="L469" s="63">
+      <c r="L469" s="59">
         <v>-31</v>
       </c>
-      <c r="M469" s="63">
-        <v>0</v>
-      </c>
-      <c r="N469" s="63">
-        <v>0</v>
-      </c>
-      <c r="O469" s="63" t="s">
+      <c r="M469" s="59">
+        <v>0</v>
+      </c>
+      <c r="N469" s="59">
+        <v>0</v>
+      </c>
+      <c r="O469" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P469" s="63">
+      <c r="P469" s="59">
         <v>3000</v>
       </c>
-      <c r="Q469" s="63" t="s">
+      <c r="Q469" s="59" t="s">
         <v>991</v>
       </c>
-      <c r="R469" s="64" t="s">
+      <c r="R469" s="60" t="s">
         <v>1593</v>
       </c>
-      <c r="W469" s="63" t="s">
+      <c r="W469" s="59" t="s">
         <v>1588</v>
       </c>
-      <c r="X469" s="63">
+      <c r="X469" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y469" s="63">
+      <c r="Y469" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z469" s="63">
+      <c r="Z469" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH469" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI469" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL469" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM469" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="63">
+      <c r="AH469" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI469" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL469" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM469" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="59">
         <v>469</v>
       </c>
-      <c r="B470" s="63">
+      <c r="B470" s="59">
         <v>10386</v>
       </c>
-      <c r="F470" s="63">
-        <v>1</v>
-      </c>
-      <c r="G470" s="63" t="s">
+      <c r="F470" s="59">
+        <v>1</v>
+      </c>
+      <c r="G470" s="59" t="s">
         <v>1594</v>
       </c>
-      <c r="I470" s="63" t="s">
+      <c r="I470" s="59" t="s">
         <v>1591</v>
       </c>
-      <c r="J470" s="63" t="s">
+      <c r="J470" s="59" t="s">
         <v>1595</v>
       </c>
-      <c r="L470" s="63">
+      <c r="L470" s="59">
         <v>-31</v>
       </c>
-      <c r="M470" s="63">
-        <v>0</v>
-      </c>
-      <c r="N470" s="63">
-        <v>0</v>
-      </c>
-      <c r="O470" s="63" t="s">
+      <c r="M470" s="59">
+        <v>0</v>
+      </c>
+      <c r="N470" s="59">
+        <v>0</v>
+      </c>
+      <c r="O470" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P470" s="63">
+      <c r="P470" s="59">
         <v>6800</v>
       </c>
-      <c r="Q470" s="63" t="s">
+      <c r="Q470" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R470" s="64" t="s">
+      <c r="R470" s="60" t="s">
         <v>1596</v>
       </c>
-      <c r="W470" s="63" t="s">
+      <c r="W470" s="59" t="s">
         <v>1589</v>
       </c>
-      <c r="X470" s="63">
+      <c r="X470" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y470" s="63">
+      <c r="Y470" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z470" s="63">
+      <c r="Z470" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH470" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI470" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL470" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM470" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="63">
+      <c r="AH470" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI470" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL470" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM470" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="59">
         <v>470</v>
       </c>
-      <c r="B471" s="63">
+      <c r="B471" s="59">
         <v>10387</v>
       </c>
-      <c r="F471" s="63">
-        <v>1</v>
-      </c>
-      <c r="G471" s="63" t="s">
+      <c r="F471" s="59">
+        <v>1</v>
+      </c>
+      <c r="G471" s="59" t="s">
         <v>1597</v>
       </c>
-      <c r="I471" s="63" t="s">
+      <c r="I471" s="59" t="s">
         <v>1585</v>
       </c>
-      <c r="J471" s="63" t="s">
+      <c r="J471" s="59" t="s">
         <v>1598</v>
       </c>
-      <c r="L471" s="63">
+      <c r="L471" s="59">
         <v>-31</v>
       </c>
-      <c r="M471" s="63">
-        <v>0</v>
-      </c>
-      <c r="N471" s="63">
-        <v>0</v>
-      </c>
-      <c r="O471" s="63" t="s">
+      <c r="M471" s="59">
+        <v>0</v>
+      </c>
+      <c r="N471" s="59">
+        <v>0</v>
+      </c>
+      <c r="O471" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P471" s="63">
+      <c r="P471" s="59">
         <v>9800</v>
       </c>
-      <c r="Q471" s="63" t="s">
+      <c r="Q471" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R471" s="64" t="s">
+      <c r="R471" s="60" t="s">
         <v>1599</v>
       </c>
-      <c r="W471" s="63" t="s">
+      <c r="W471" s="59" t="s">
         <v>1600</v>
       </c>
-      <c r="X471" s="63">
+      <c r="X471" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y471" s="63">
+      <c r="Y471" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z471" s="63">
+      <c r="Z471" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH471" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI471" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL471" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM471" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A472" s="63">
+      <c r="AH471" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI471" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL471" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM471" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="59">
         <v>471</v>
       </c>
-      <c r="B472" s="63">
+      <c r="B472" s="59">
         <v>10388</v>
       </c>
-      <c r="F472" s="63">
-        <v>1</v>
-      </c>
-      <c r="G472" s="63" t="s">
+      <c r="F472" s="59">
+        <v>1</v>
+      </c>
+      <c r="G472" s="59" t="s">
         <v>1601</v>
       </c>
-      <c r="I472" s="63" t="s">
+      <c r="I472" s="59" t="s">
         <v>1585</v>
       </c>
-      <c r="J472" s="63" t="s">
+      <c r="J472" s="59" t="s">
         <v>1602</v>
       </c>
-      <c r="L472" s="63">
+      <c r="L472" s="59">
         <v>-31</v>
       </c>
-      <c r="M472" s="63">
-        <v>0</v>
-      </c>
-      <c r="N472" s="63">
-        <v>0</v>
-      </c>
-      <c r="O472" s="63" t="s">
+      <c r="M472" s="59">
+        <v>0</v>
+      </c>
+      <c r="N472" s="59">
+        <v>0</v>
+      </c>
+      <c r="O472" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P472" s="63">
+      <c r="P472" s="59">
         <v>19800</v>
       </c>
-      <c r="Q472" s="63" t="s">
+      <c r="Q472" s="59" t="s">
         <v>991</v>
       </c>
-      <c r="R472" s="64" t="s">
+      <c r="R472" s="60" t="s">
         <v>1603</v>
       </c>
-      <c r="W472" s="63" t="s">
+      <c r="W472" s="59" t="s">
         <v>1600</v>
       </c>
-      <c r="X472" s="63">
+      <c r="X472" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y472" s="63">
+      <c r="Y472" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z472" s="63">
+      <c r="Z472" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH472" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI472" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL472" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM472" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A473" s="63">
+      <c r="AH472" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI472" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL472" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM472" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="59">
         <v>472</v>
       </c>
-      <c r="B473" s="63">
+      <c r="B473" s="59">
         <v>10389</v>
       </c>
-      <c r="F473" s="63">
-        <v>1</v>
-      </c>
-      <c r="G473" s="63" t="s">
+      <c r="F473" s="59">
+        <v>1</v>
+      </c>
+      <c r="G473" s="59" t="s">
         <v>1604</v>
       </c>
-      <c r="I473" s="63" t="s">
+      <c r="I473" s="59" t="s">
         <v>1591</v>
       </c>
-      <c r="J473" s="63" t="s">
+      <c r="J473" s="59" t="s">
         <v>1605</v>
       </c>
-      <c r="L473" s="63">
+      <c r="L473" s="59">
         <v>-31</v>
       </c>
-      <c r="M473" s="63">
-        <v>0</v>
-      </c>
-      <c r="N473" s="63">
-        <v>0</v>
-      </c>
-      <c r="O473" s="63" t="s">
+      <c r="M473" s="59">
+        <v>0</v>
+      </c>
+      <c r="N473" s="59">
+        <v>0</v>
+      </c>
+      <c r="O473" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P473" s="63">
+      <c r="P473" s="59">
         <v>49800</v>
       </c>
-      <c r="Q473" s="63" t="s">
+      <c r="Q473" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R473" s="64" t="s">
+      <c r="R473" s="60" t="s">
         <v>1606</v>
       </c>
-      <c r="W473" s="63" t="s">
+      <c r="W473" s="59" t="s">
         <v>1600</v>
       </c>
-      <c r="X473" s="63">
+      <c r="X473" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y473" s="63">
+      <c r="Y473" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z473" s="63">
+      <c r="Z473" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH473" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI473" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL473" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM473" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="63">
+      <c r="AH473" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI473" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL473" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM473" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="59">
         <v>473</v>
       </c>
-      <c r="B474" s="63">
+      <c r="B474" s="59">
         <v>10390</v>
       </c>
-      <c r="F474" s="63">
-        <v>1</v>
-      </c>
-      <c r="G474" s="63" t="s">
+      <c r="F474" s="59">
+        <v>1</v>
+      </c>
+      <c r="G474" s="59" t="s">
         <v>1607</v>
       </c>
-      <c r="I474" s="63" t="s">
+      <c r="I474" s="59" t="s">
         <v>1591</v>
       </c>
-      <c r="J474" s="63" t="s">
+      <c r="J474" s="59" t="s">
         <v>1608</v>
       </c>
-      <c r="L474" s="63">
+      <c r="L474" s="59">
         <v>-31</v>
       </c>
-      <c r="M474" s="63">
-        <v>0</v>
-      </c>
-      <c r="N474" s="63">
-        <v>0</v>
-      </c>
-      <c r="O474" s="63" t="s">
+      <c r="M474" s="59">
+        <v>0</v>
+      </c>
+      <c r="N474" s="59">
+        <v>0</v>
+      </c>
+      <c r="O474" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P474" s="63">
+      <c r="P474" s="59">
         <v>99800</v>
       </c>
-      <c r="Q474" s="63" t="s">
+      <c r="Q474" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R474" s="64" t="s">
+      <c r="R474" s="60" t="s">
         <v>1609</v>
       </c>
-      <c r="W474" s="63" t="s">
+      <c r="W474" s="59" t="s">
         <v>1600</v>
       </c>
-      <c r="X474" s="63">
+      <c r="X474" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y474" s="63">
+      <c r="Y474" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z474" s="63">
+      <c r="Z474" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH474" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI474" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL474" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM474" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A475" s="63">
+      <c r="AH474" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI474" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL474" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM474" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="59">
         <v>474</v>
       </c>
-      <c r="B475" s="63">
+      <c r="B475" s="59">
         <v>10391</v>
       </c>
-      <c r="F475" s="63">
-        <v>1</v>
-      </c>
-      <c r="G475" s="63" t="s">
+      <c r="F475" s="59">
+        <v>1</v>
+      </c>
+      <c r="G475" s="59" t="s">
         <v>1610</v>
       </c>
-      <c r="I475" s="63" t="s">
+      <c r="I475" s="59" t="s">
         <v>1591</v>
       </c>
-      <c r="J475" s="63" t="s">
+      <c r="J475" s="59" t="s">
         <v>1670</v>
       </c>
-      <c r="L475" s="63">
+      <c r="L475" s="59">
         <v>-31</v>
       </c>
-      <c r="M475" s="63">
-        <v>0</v>
-      </c>
-      <c r="N475" s="63">
-        <v>0</v>
-      </c>
-      <c r="O475" s="63" t="s">
+      <c r="M475" s="59">
+        <v>0</v>
+      </c>
+      <c r="N475" s="59">
+        <v>0</v>
+      </c>
+      <c r="O475" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P475" s="63">
+      <c r="P475" s="59">
         <v>249800</v>
       </c>
-      <c r="Q475" s="63" t="s">
+      <c r="Q475" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R475" s="64" t="s">
+      <c r="R475" s="60" t="s">
         <v>1669</v>
       </c>
-      <c r="W475" s="63" t="s">
+      <c r="W475" s="59" t="s">
         <v>1600</v>
       </c>
-      <c r="X475" s="63">
+      <c r="X475" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y475" s="63">
+      <c r="Y475" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z475" s="63">
+      <c r="Z475" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH475" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI475" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL475" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM475" s="63">
+      <c r="AH475" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI475" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL475" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM475" s="59">
         <v>1</v>
       </c>
     </row>
@@ -42852,263 +42981,263 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="63">
+    <row r="493" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="59">
         <v>492</v>
       </c>
-      <c r="B493" s="63">
+      <c r="B493" s="59">
         <v>10409</v>
       </c>
-      <c r="F493" s="63">
-        <v>1</v>
-      </c>
-      <c r="G493" s="63" t="s">
+      <c r="F493" s="59">
+        <v>1</v>
+      </c>
+      <c r="G493" s="59" t="s">
         <v>1854</v>
       </c>
-      <c r="I493" s="63" t="s">
+      <c r="I493" s="59" t="s">
         <v>1855</v>
       </c>
-      <c r="J493" s="63" t="s">
+      <c r="J493" s="59" t="s">
         <v>1856</v>
       </c>
-      <c r="L493" s="63">
+      <c r="L493" s="59">
         <v>-31</v>
       </c>
-      <c r="M493" s="63">
-        <v>0</v>
-      </c>
-      <c r="N493" s="63">
-        <v>0</v>
-      </c>
-      <c r="O493" s="63" t="s">
+      <c r="M493" s="59">
+        <v>0</v>
+      </c>
+      <c r="N493" s="59">
+        <v>0</v>
+      </c>
+      <c r="O493" s="59" t="s">
         <v>1857</v>
       </c>
-      <c r="P493" s="63">
+      <c r="P493" s="59">
         <v>49800</v>
       </c>
-      <c r="Q493" s="63" t="s">
+      <c r="Q493" s="59" t="s">
         <v>1858</v>
       </c>
-      <c r="R493" s="64" t="s">
+      <c r="R493" s="60" t="s">
         <v>1860</v>
       </c>
-      <c r="W493" s="63" t="s">
+      <c r="W493" s="59" t="s">
         <v>524</v>
       </c>
-      <c r="X493" s="63">
+      <c r="X493" s="59">
         <v>200</v>
       </c>
-      <c r="Y493" s="63">
+      <c r="Y493" s="59">
         <v>1609200000</v>
       </c>
-      <c r="Z493" s="63">
+      <c r="Z493" s="59">
         <v>1609775999</v>
       </c>
-      <c r="AH493" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI493" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL493" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM493" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="63">
+      <c r="AH493" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI493" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL493" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM493" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="59">
         <v>493</v>
       </c>
-      <c r="B494" s="63">
+      <c r="B494" s="59">
         <v>10410</v>
       </c>
-      <c r="F494" s="63">
-        <v>1</v>
-      </c>
-      <c r="G494" s="63" t="s">
+      <c r="F494" s="59">
+        <v>1</v>
+      </c>
+      <c r="G494" s="59" t="s">
         <v>1854</v>
       </c>
-      <c r="I494" s="63" t="s">
+      <c r="I494" s="59" t="s">
         <v>1859</v>
       </c>
-      <c r="J494" s="63" t="s">
+      <c r="J494" s="59" t="s">
         <v>1856</v>
       </c>
-      <c r="L494" s="63">
+      <c r="L494" s="59">
         <v>-31</v>
       </c>
-      <c r="M494" s="63">
-        <v>0</v>
-      </c>
-      <c r="N494" s="63">
-        <v>0</v>
-      </c>
-      <c r="O494" s="63" t="s">
+      <c r="M494" s="59">
+        <v>0</v>
+      </c>
+      <c r="N494" s="59">
+        <v>0</v>
+      </c>
+      <c r="O494" s="59" t="s">
         <v>1857</v>
       </c>
-      <c r="P494" s="63">
+      <c r="P494" s="59">
         <v>99800</v>
       </c>
-      <c r="Q494" s="63" t="s">
+      <c r="Q494" s="59" t="s">
         <v>1858</v>
       </c>
-      <c r="R494" s="64" t="s">
+      <c r="R494" s="60" t="s">
         <v>1860</v>
       </c>
-      <c r="W494" s="63" t="s">
+      <c r="W494" s="59" t="s">
         <v>524</v>
       </c>
-      <c r="X494" s="63">
+      <c r="X494" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y494" s="63">
+      <c r="Y494" s="59">
         <v>1609200000</v>
       </c>
-      <c r="Z494" s="63">
+      <c r="Z494" s="59">
         <v>1609775999</v>
       </c>
-      <c r="AH494" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI494" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL494" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM494" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A495" s="63">
+      <c r="AH494" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI494" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL494" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM494" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="59">
         <v>494</v>
       </c>
-      <c r="B495" s="63">
+      <c r="B495" s="59">
         <v>10411</v>
       </c>
-      <c r="F495" s="63">
-        <v>1</v>
-      </c>
-      <c r="G495" s="63" t="s">
+      <c r="F495" s="59">
+        <v>1</v>
+      </c>
+      <c r="G495" s="59" t="s">
         <v>1870</v>
       </c>
-      <c r="J495" s="63" t="s">
+      <c r="J495" s="59" t="s">
         <v>1871</v>
       </c>
-      <c r="L495" s="63">
+      <c r="L495" s="59">
         <v>-31</v>
       </c>
-      <c r="M495" s="63">
-        <v>0</v>
-      </c>
-      <c r="N495" s="63">
-        <v>0</v>
-      </c>
-      <c r="O495" s="63" t="s">
+      <c r="M495" s="59">
+        <v>0</v>
+      </c>
+      <c r="N495" s="59">
+        <v>0</v>
+      </c>
+      <c r="O495" s="59" t="s">
         <v>1872</v>
       </c>
-      <c r="P495" s="63">
+      <c r="P495" s="59">
         <v>79800</v>
       </c>
-      <c r="Q495" s="63" t="s">
+      <c r="Q495" s="59" t="s">
         <v>1627</v>
       </c>
-      <c r="R495" s="64" t="s">
+      <c r="R495" s="60" t="s">
         <v>1873</v>
       </c>
-      <c r="W495" s="63" t="s">
+      <c r="W495" s="59" t="s">
         <v>568</v>
       </c>
-      <c r="X495" s="63">
+      <c r="X495" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y495" s="63">
+      <c r="Y495" s="59">
         <v>1592263800</v>
       </c>
-      <c r="Z495" s="63">
+      <c r="Z495" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA495" s="63">
+      <c r="AA495" s="59">
         <v>14</v>
       </c>
-      <c r="AH495" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI495" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL495" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM495" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A496" s="63">
+      <c r="AH495" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI495" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL495" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM495" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="59">
         <v>495</v>
       </c>
-      <c r="B496" s="63">
+      <c r="B496" s="59">
         <v>10412</v>
       </c>
-      <c r="F496" s="63">
-        <v>1</v>
-      </c>
-      <c r="G496" s="63" t="s">
+      <c r="F496" s="59">
+        <v>1</v>
+      </c>
+      <c r="G496" s="59" t="s">
         <v>1874</v>
       </c>
-      <c r="J496" s="63" t="s">
+      <c r="J496" s="59" t="s">
         <v>1875</v>
       </c>
-      <c r="L496" s="63">
+      <c r="L496" s="59">
         <v>-31</v>
       </c>
-      <c r="M496" s="63">
-        <v>0</v>
-      </c>
-      <c r="N496" s="63">
-        <v>0</v>
-      </c>
-      <c r="O496" s="63" t="s">
+      <c r="M496" s="59">
+        <v>0</v>
+      </c>
+      <c r="N496" s="59">
+        <v>0</v>
+      </c>
+      <c r="O496" s="59" t="s">
         <v>1872</v>
       </c>
-      <c r="P496" s="63">
+      <c r="P496" s="59">
         <v>89800</v>
       </c>
-      <c r="Q496" s="63" t="s">
+      <c r="Q496" s="59" t="s">
         <v>1876</v>
       </c>
-      <c r="R496" s="64" t="s">
+      <c r="R496" s="60" t="s">
         <v>1877</v>
       </c>
-      <c r="W496" s="63" t="s">
+      <c r="W496" s="59" t="s">
         <v>1878</v>
       </c>
-      <c r="X496" s="63">
+      <c r="X496" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y496" s="63">
+      <c r="Y496" s="59">
         <v>1592263800</v>
       </c>
-      <c r="Z496" s="63">
+      <c r="Z496" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA496" s="63">
+      <c r="AA496" s="59">
         <v>14</v>
       </c>
-      <c r="AH496" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI496" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL496" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM496" s="63">
+      <c r="AH496" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI496" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL496" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM496" s="59">
         <v>1</v>
       </c>
     </row>
@@ -43149,7 +43278,7 @@
       <c r="Q497" s="5" t="s">
         <v>1885</v>
       </c>
-      <c r="R497" s="67" t="s">
+      <c r="R497" s="63" t="s">
         <v>2009</v>
       </c>
       <c r="W497" s="47" t="s">
@@ -43217,7 +43346,7 @@
       <c r="Q498" s="5" t="s">
         <v>1885</v>
       </c>
-      <c r="R498" s="67" t="s">
+      <c r="R498" s="63" t="s">
         <v>2010</v>
       </c>
       <c r="W498" s="47" t="s">
@@ -43285,7 +43414,7 @@
       <c r="Q499" s="5" t="s">
         <v>1885</v>
       </c>
-      <c r="R499" s="67" t="s">
+      <c r="R499" s="63" t="s">
         <v>2011</v>
       </c>
       <c r="W499" s="47" t="s">
@@ -43353,7 +43482,7 @@
       <c r="Q500" s="5" t="s">
         <v>1885</v>
       </c>
-      <c r="R500" s="67" t="s">
+      <c r="R500" s="63" t="s">
         <v>2012</v>
       </c>
       <c r="W500" s="47" t="s">
@@ -43421,7 +43550,7 @@
       <c r="Q501" s="5" t="s">
         <v>1885</v>
       </c>
-      <c r="R501" s="67" t="s">
+      <c r="R501" s="63" t="s">
         <v>2013</v>
       </c>
       <c r="W501" s="47" t="s">
@@ -43489,7 +43618,7 @@
       <c r="Q502" s="5" t="s">
         <v>1885</v>
       </c>
-      <c r="R502" s="67" t="s">
+      <c r="R502" s="63" t="s">
         <v>2014</v>
       </c>
       <c r="W502" s="47" t="s">
@@ -43557,7 +43686,7 @@
       <c r="Q503" s="5" t="s">
         <v>1895</v>
       </c>
-      <c r="R503" s="68" t="s">
+      <c r="R503" s="64" t="s">
         <v>2015</v>
       </c>
       <c r="W503" s="47" t="s">
@@ -43625,7 +43754,7 @@
       <c r="Q504" s="5" t="s">
         <v>1895</v>
       </c>
-      <c r="R504" s="68" t="s">
+      <c r="R504" s="64" t="s">
         <v>2010</v>
       </c>
       <c r="W504" s="47" t="s">
@@ -43693,7 +43822,7 @@
       <c r="Q505" s="5" t="s">
         <v>1895</v>
       </c>
-      <c r="R505" s="68" t="s">
+      <c r="R505" s="64" t="s">
         <v>2016</v>
       </c>
       <c r="W505" s="47" t="s">
@@ -43761,7 +43890,7 @@
       <c r="Q506" s="5" t="s">
         <v>1899</v>
       </c>
-      <c r="R506" s="68" t="s">
+      <c r="R506" s="64" t="s">
         <v>2017</v>
       </c>
       <c r="W506" s="47" t="s">
@@ -43829,7 +43958,7 @@
       <c r="Q507" s="5" t="s">
         <v>1899</v>
       </c>
-      <c r="R507" s="68" t="s">
+      <c r="R507" s="64" t="s">
         <v>2018</v>
       </c>
       <c r="W507" s="47" t="s">
@@ -43897,7 +44026,7 @@
       <c r="Q508" s="5" t="s">
         <v>1899</v>
       </c>
-      <c r="R508" s="68" t="s">
+      <c r="R508" s="64" t="s">
         <v>2019</v>
       </c>
       <c r="W508" s="47" t="s">
@@ -43928,183 +44057,183 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A509" s="63">
+    <row r="509" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="59">
         <v>508</v>
       </c>
-      <c r="B509" s="63">
+      <c r="B509" s="59">
         <v>10425</v>
       </c>
-      <c r="F509" s="63">
-        <v>1</v>
-      </c>
-      <c r="G509" s="63" t="s">
+      <c r="F509" s="59">
+        <v>1</v>
+      </c>
+      <c r="G509" s="59" t="s">
         <v>1902</v>
       </c>
-      <c r="J509" s="63" t="s">
+      <c r="J509" s="59" t="s">
         <v>1903</v>
       </c>
-      <c r="L509" s="63">
+      <c r="L509" s="59">
         <v>-4</v>
       </c>
-      <c r="M509" s="63">
-        <v>1</v>
-      </c>
-      <c r="N509" s="63">
-        <v>0</v>
-      </c>
-      <c r="O509" s="63" t="s">
+      <c r="M509" s="59">
+        <v>1</v>
+      </c>
+      <c r="N509" s="59">
+        <v>0</v>
+      </c>
+      <c r="O509" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P509" s="63">
+      <c r="P509" s="59">
         <v>1800</v>
       </c>
-      <c r="R509" s="64"/>
-      <c r="W509" s="63" t="s">
+      <c r="R509" s="60"/>
+      <c r="W509" s="59" t="s">
         <v>525</v>
       </c>
-      <c r="X509" s="65" t="s">
+      <c r="X509" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="Y509" s="66">
-        <v>0</v>
-      </c>
-      <c r="Z509" s="63">
+      <c r="Y509" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z509" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AB509" s="63" t="s">
+      <c r="AB509" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="AC509" s="63" t="s">
+      <c r="AC509" s="59" t="s">
         <v>1904</v>
       </c>
-      <c r="AD509" s="64" t="s">
+      <c r="AD509" s="60" t="s">
         <v>1905</v>
       </c>
-      <c r="AH509" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI509" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A510" s="63">
+      <c r="AH509" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI509" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="59">
         <v>509</v>
       </c>
-      <c r="B510" s="63">
+      <c r="B510" s="59">
         <v>10426</v>
       </c>
-      <c r="F510" s="63">
-        <v>1</v>
-      </c>
-      <c r="G510" s="63" t="s">
+      <c r="F510" s="59">
+        <v>1</v>
+      </c>
+      <c r="G510" s="59" t="s">
         <v>1906</v>
       </c>
-      <c r="J510" s="63" t="s">
+      <c r="J510" s="59" t="s">
         <v>1907</v>
       </c>
-      <c r="L510" s="63">
+      <c r="L510" s="59">
         <v>-4</v>
       </c>
-      <c r="M510" s="63">
-        <v>1</v>
-      </c>
-      <c r="N510" s="63">
-        <v>0</v>
-      </c>
-      <c r="O510" s="63" t="s">
+      <c r="M510" s="59">
+        <v>1</v>
+      </c>
+      <c r="N510" s="59">
+        <v>0</v>
+      </c>
+      <c r="O510" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P510" s="63">
+      <c r="P510" s="59">
         <v>4800</v>
       </c>
-      <c r="R510" s="64"/>
-      <c r="W510" s="63" t="s">
+      <c r="R510" s="60"/>
+      <c r="W510" s="59" t="s">
         <v>525</v>
       </c>
-      <c r="X510" s="65" t="s">
+      <c r="X510" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="Y510" s="66">
-        <v>0</v>
-      </c>
-      <c r="Z510" s="63">
+      <c r="Y510" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z510" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AB510" s="63" t="s">
+      <c r="AB510" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="AC510" s="63" t="s">
+      <c r="AC510" s="59" t="s">
         <v>1908</v>
       </c>
-      <c r="AD510" s="64" t="s">
+      <c r="AD510" s="60" t="s">
         <v>1909</v>
       </c>
-      <c r="AH510" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI510" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A511" s="63">
+      <c r="AH510" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI510" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="59">
         <v>510</v>
       </c>
-      <c r="B511" s="63">
+      <c r="B511" s="59">
         <v>10427</v>
       </c>
-      <c r="F511" s="63">
-        <v>1</v>
-      </c>
-      <c r="G511" s="63" t="s">
+      <c r="F511" s="59">
+        <v>1</v>
+      </c>
+      <c r="G511" s="59" t="s">
         <v>1910</v>
       </c>
-      <c r="J511" s="63" t="s">
+      <c r="J511" s="59" t="s">
         <v>1911</v>
       </c>
-      <c r="L511" s="63">
+      <c r="L511" s="59">
         <v>-4</v>
       </c>
-      <c r="M511" s="63">
-        <v>1</v>
-      </c>
-      <c r="N511" s="63">
-        <v>0</v>
-      </c>
-      <c r="O511" s="63" t="s">
+      <c r="M511" s="59">
+        <v>1</v>
+      </c>
+      <c r="N511" s="59">
+        <v>0</v>
+      </c>
+      <c r="O511" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P511" s="63">
+      <c r="P511" s="59">
         <v>9800</v>
       </c>
-      <c r="R511" s="64"/>
-      <c r="W511" s="63" t="s">
+      <c r="R511" s="60"/>
+      <c r="W511" s="59" t="s">
         <v>525</v>
       </c>
-      <c r="X511" s="65" t="s">
+      <c r="X511" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="Y511" s="66">
-        <v>0</v>
-      </c>
-      <c r="Z511" s="63">
+      <c r="Y511" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z511" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AB511" s="63" t="s">
+      <c r="AB511" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="AC511" s="63" t="s">
+      <c r="AC511" s="59" t="s">
         <v>1912</v>
       </c>
-      <c r="AD511" s="64" t="s">
+      <c r="AD511" s="60" t="s">
         <v>1913</v>
       </c>
-      <c r="AH511" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI511" s="63">
+      <c r="AH511" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI511" s="59">
         <v>1</v>
       </c>
     </row>
@@ -44714,819 +44843,1431 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" s="5">
         <v>520</v>
       </c>
       <c r="B521" s="5">
         <v>10437</v>
       </c>
-      <c r="F521" s="61">
-        <v>1</v>
-      </c>
-      <c r="G521" s="61" t="s">
+      <c r="F521" s="5">
+        <v>1</v>
+      </c>
+      <c r="G521" s="5" t="s">
         <v>1965</v>
       </c>
-      <c r="I521" s="61" t="s">
+      <c r="I521" s="5" t="s">
         <v>1967</v>
       </c>
-      <c r="J521" s="61" t="s">
+      <c r="J521" s="5" t="s">
         <v>1968</v>
       </c>
-      <c r="L521" s="61">
+      <c r="L521" s="5">
         <v>-33</v>
       </c>
-      <c r="M521" s="61">
-        <v>0</v>
-      </c>
-      <c r="N521" s="61">
-        <v>0</v>
-      </c>
-      <c r="O521" s="61" t="s">
+      <c r="M521" s="5">
+        <v>0</v>
+      </c>
+      <c r="N521" s="5">
+        <v>0</v>
+      </c>
+      <c r="O521" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P521" s="61">
+      <c r="P521" s="5">
         <v>600</v>
       </c>
-      <c r="Q521" s="61" t="s">
+      <c r="Q521" s="5" t="s">
         <v>1970</v>
       </c>
-      <c r="R521" s="62" t="s">
+      <c r="R521" s="10" t="s">
         <v>1971</v>
       </c>
-      <c r="W521" s="61" t="s">
+      <c r="W521" s="5" t="s">
         <v>1190</v>
       </c>
-      <c r="X521" s="61">
+      <c r="X521" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y521" s="61">
+      <c r="Y521" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z521" s="61">
+      <c r="Z521" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA521" s="61">
+      <c r="AA521" s="5">
         <v>70</v>
       </c>
-      <c r="AH521" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI521" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL521" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM521" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM521" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>521</v>
       </c>
       <c r="B522" s="5">
         <v>10438</v>
       </c>
-      <c r="F522" s="61">
-        <v>1</v>
-      </c>
-      <c r="G522" s="61" t="s">
+      <c r="F522" s="5">
+        <v>1</v>
+      </c>
+      <c r="G522" s="5" t="s">
         <v>1973</v>
       </c>
-      <c r="I522" s="61" t="s">
+      <c r="I522" s="5" t="s">
         <v>1967</v>
       </c>
-      <c r="J522" s="61" t="s">
+      <c r="J522" s="5" t="s">
         <v>1974</v>
       </c>
-      <c r="L522" s="61">
+      <c r="L522" s="5">
         <v>-33</v>
       </c>
-      <c r="M522" s="61">
-        <v>0</v>
-      </c>
-      <c r="N522" s="61">
-        <v>0</v>
-      </c>
-      <c r="O522" s="61" t="s">
+      <c r="M522" s="5">
+        <v>0</v>
+      </c>
+      <c r="N522" s="5">
+        <v>0</v>
+      </c>
+      <c r="O522" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P522" s="61">
+      <c r="P522" s="5">
         <v>1000</v>
       </c>
-      <c r="Q522" s="61" t="s">
+      <c r="Q522" s="5" t="s">
         <v>1976</v>
       </c>
-      <c r="R522" s="62" t="s">
+      <c r="R522" s="10" t="s">
         <v>1977</v>
       </c>
-      <c r="W522" s="61" t="s">
+      <c r="W522" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X522" s="61">
+      <c r="X522" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y522" s="61">
+      <c r="Y522" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z522" s="61">
+      <c r="Z522" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA522" s="61">
+      <c r="AA522" s="5">
         <v>70</v>
       </c>
-      <c r="AH522" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI522" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL522" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM522" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM522" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>522</v>
       </c>
       <c r="B523" s="5">
         <v>10439</v>
       </c>
-      <c r="F523" s="61">
-        <v>1</v>
-      </c>
-      <c r="G523" s="61" t="s">
+      <c r="F523" s="5">
+        <v>1</v>
+      </c>
+      <c r="G523" s="5" t="s">
         <v>1978</v>
       </c>
-      <c r="I523" s="61" t="s">
+      <c r="I523" s="5" t="s">
         <v>1966</v>
       </c>
-      <c r="J523" s="61" t="s">
+      <c r="J523" s="5" t="s">
         <v>1979</v>
       </c>
-      <c r="L523" s="61">
+      <c r="L523" s="5">
         <v>-33</v>
       </c>
-      <c r="M523" s="61">
-        <v>0</v>
-      </c>
-      <c r="N523" s="61">
-        <v>0</v>
-      </c>
-      <c r="O523" s="61" t="s">
+      <c r="M523" s="5">
+        <v>0</v>
+      </c>
+      <c r="N523" s="5">
+        <v>0</v>
+      </c>
+      <c r="O523" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P523" s="61">
+      <c r="P523" s="5">
         <v>1800</v>
       </c>
-      <c r="Q523" s="61" t="s">
+      <c r="Q523" s="5" t="s">
         <v>1981</v>
       </c>
-      <c r="R523" s="62" t="s">
+      <c r="R523" s="10" t="s">
         <v>1982</v>
       </c>
-      <c r="W523" s="61" t="s">
+      <c r="W523" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X523" s="61">
+      <c r="X523" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y523" s="61">
+      <c r="Y523" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z523" s="61">
+      <c r="Z523" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA523" s="61">
+      <c r="AA523" s="5">
         <v>70</v>
       </c>
-      <c r="AH523" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI523" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL523" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM523" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM523" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A524" s="5">
         <v>523</v>
       </c>
       <c r="B524" s="5">
         <v>10440</v>
       </c>
-      <c r="F524" s="61">
-        <v>1</v>
-      </c>
-      <c r="G524" s="61" t="s">
+      <c r="F524" s="5">
+        <v>1</v>
+      </c>
+      <c r="G524" s="5" t="s">
         <v>1983</v>
       </c>
-      <c r="I524" s="61" t="s">
+      <c r="I524" s="5" t="s">
         <v>1967</v>
       </c>
-      <c r="J524" s="61" t="s">
+      <c r="J524" s="5" t="s">
         <v>1984</v>
       </c>
-      <c r="L524" s="61">
+      <c r="L524" s="5">
         <v>-33</v>
       </c>
-      <c r="M524" s="61">
-        <v>0</v>
-      </c>
-      <c r="N524" s="61">
-        <v>0</v>
-      </c>
-      <c r="O524" s="61" t="s">
+      <c r="M524" s="5">
+        <v>0</v>
+      </c>
+      <c r="N524" s="5">
+        <v>0</v>
+      </c>
+      <c r="O524" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P524" s="61">
+      <c r="P524" s="5">
         <v>4800</v>
       </c>
-      <c r="Q524" s="61" t="s">
+      <c r="Q524" s="5" t="s">
         <v>1985</v>
       </c>
-      <c r="R524" s="62" t="s">
+      <c r="R524" s="10" t="s">
         <v>1986</v>
       </c>
-      <c r="W524" s="61" t="s">
+      <c r="W524" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X524" s="61">
+      <c r="X524" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y524" s="61">
+      <c r="Y524" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z524" s="61">
+      <c r="Z524" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA524" s="61">
+      <c r="AA524" s="5">
         <v>70</v>
       </c>
-      <c r="AH524" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI524" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL524" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM524" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM524" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>524</v>
       </c>
       <c r="B525" s="5">
         <v>10441</v>
       </c>
-      <c r="F525" s="49">
-        <v>1</v>
-      </c>
-      <c r="G525" s="49" t="s">
+      <c r="F525" s="5">
+        <v>1</v>
+      </c>
+      <c r="G525" s="5" t="s">
         <v>1964</v>
       </c>
-      <c r="I525" s="49" t="s">
+      <c r="I525" s="5" t="s">
         <v>1987</v>
       </c>
-      <c r="J525" s="49" t="s">
+      <c r="J525" s="5" t="s">
         <v>1988</v>
       </c>
-      <c r="L525" s="49">
+      <c r="L525" s="5">
         <v>-33</v>
       </c>
-      <c r="M525" s="49">
-        <v>0</v>
-      </c>
-      <c r="N525" s="49">
-        <v>0</v>
-      </c>
-      <c r="O525" s="49" t="s">
+      <c r="M525" s="5">
+        <v>0</v>
+      </c>
+      <c r="N525" s="5">
+        <v>0</v>
+      </c>
+      <c r="O525" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P525" s="49">
+      <c r="P525" s="5">
         <v>1800</v>
       </c>
-      <c r="Q525" s="49" t="s">
+      <c r="Q525" s="5" t="s">
         <v>1969</v>
       </c>
-      <c r="R525" s="50" t="s">
+      <c r="R525" s="10" t="s">
         <v>1982</v>
       </c>
-      <c r="W525" s="49" t="s">
+      <c r="W525" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X525" s="49">
+      <c r="X525" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y525" s="49">
+      <c r="Y525" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z525" s="49">
+      <c r="Z525" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA525" s="49">
+      <c r="AA525" s="5">
         <v>71</v>
       </c>
-      <c r="AH525" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI525" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL525" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM525" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM525" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>525</v>
       </c>
       <c r="B526" s="5">
         <v>10442</v>
       </c>
-      <c r="F526" s="49">
-        <v>1</v>
-      </c>
-      <c r="G526" s="49" t="s">
+      <c r="F526" s="5">
+        <v>1</v>
+      </c>
+      <c r="G526" s="5" t="s">
         <v>1972</v>
       </c>
-      <c r="I526" s="49" t="s">
+      <c r="I526" s="5" t="s">
         <v>1989</v>
       </c>
-      <c r="J526" s="49" t="s">
+      <c r="J526" s="5" t="s">
         <v>1990</v>
       </c>
-      <c r="L526" s="49">
+      <c r="L526" s="5">
         <v>-33</v>
       </c>
-      <c r="M526" s="49">
-        <v>0</v>
-      </c>
-      <c r="N526" s="49">
-        <v>0</v>
-      </c>
-      <c r="O526" s="49" t="s">
+      <c r="M526" s="5">
+        <v>0</v>
+      </c>
+      <c r="N526" s="5">
+        <v>0</v>
+      </c>
+      <c r="O526" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P526" s="49">
+      <c r="P526" s="5">
         <v>4800</v>
       </c>
-      <c r="Q526" s="49" t="s">
+      <c r="Q526" s="5" t="s">
         <v>1976</v>
       </c>
-      <c r="R526" s="50" t="s">
+      <c r="R526" s="10" t="s">
         <v>1991</v>
       </c>
-      <c r="W526" s="49" t="s">
+      <c r="W526" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X526" s="49">
+      <c r="X526" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y526" s="49">
+      <c r="Y526" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z526" s="49">
+      <c r="Z526" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA526" s="49">
+      <c r="AA526" s="5">
         <v>71</v>
       </c>
-      <c r="AH526" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI526" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL526" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM526" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM526" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>526</v>
       </c>
       <c r="B527" s="5">
         <v>10443</v>
       </c>
-      <c r="F527" s="49">
-        <v>1</v>
-      </c>
-      <c r="G527" s="49" t="s">
+      <c r="F527" s="5">
+        <v>1</v>
+      </c>
+      <c r="G527" s="5" t="s">
         <v>1992</v>
       </c>
-      <c r="I527" s="49" t="s">
+      <c r="I527" s="5" t="s">
         <v>1989</v>
       </c>
-      <c r="J527" s="49" t="s">
+      <c r="J527" s="5" t="s">
         <v>1993</v>
       </c>
-      <c r="L527" s="49">
+      <c r="L527" s="5">
         <v>-33</v>
       </c>
-      <c r="M527" s="49">
-        <v>0</v>
-      </c>
-      <c r="N527" s="49">
-        <v>0</v>
-      </c>
-      <c r="O527" s="49" t="s">
+      <c r="M527" s="5">
+        <v>0</v>
+      </c>
+      <c r="N527" s="5">
+        <v>0</v>
+      </c>
+      <c r="O527" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P527" s="49">
+      <c r="P527" s="5">
         <v>9800</v>
       </c>
-      <c r="Q527" s="49" t="s">
+      <c r="Q527" s="5" t="s">
         <v>1980</v>
       </c>
-      <c r="R527" s="50" t="s">
+      <c r="R527" s="10" t="s">
         <v>1995</v>
       </c>
-      <c r="W527" s="49" t="s">
+      <c r="W527" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X527" s="49">
+      <c r="X527" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y527" s="49">
+      <c r="Y527" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z527" s="49">
+      <c r="Z527" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA527" s="49">
+      <c r="AA527" s="5">
         <v>71</v>
       </c>
-      <c r="AH527" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI527" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL527" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM527" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM527" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>527</v>
       </c>
       <c r="B528" s="5">
         <v>10444</v>
       </c>
-      <c r="F528" s="49">
-        <v>1</v>
-      </c>
-      <c r="G528" s="49" t="s">
+      <c r="F528" s="5">
+        <v>1</v>
+      </c>
+      <c r="G528" s="5" t="s">
         <v>1983</v>
       </c>
-      <c r="I528" s="49" t="s">
+      <c r="I528" s="5" t="s">
         <v>1989</v>
       </c>
-      <c r="J528" s="49" t="s">
+      <c r="J528" s="5" t="s">
         <v>1996</v>
       </c>
-      <c r="L528" s="49">
+      <c r="L528" s="5">
         <v>-33</v>
       </c>
-      <c r="M528" s="49">
-        <v>0</v>
-      </c>
-      <c r="N528" s="49">
-        <v>0</v>
-      </c>
-      <c r="O528" s="49" t="s">
+      <c r="M528" s="5">
+        <v>0</v>
+      </c>
+      <c r="N528" s="5">
+        <v>0</v>
+      </c>
+      <c r="O528" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P528" s="49">
+      <c r="P528" s="5">
         <v>19800</v>
       </c>
-      <c r="Q528" s="49" t="s">
+      <c r="Q528" s="5" t="s">
         <v>1997</v>
       </c>
-      <c r="R528" s="50" t="s">
+      <c r="R528" s="10" t="s">
         <v>1998</v>
       </c>
-      <c r="W528" s="49" t="s">
+      <c r="W528" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X528" s="49">
+      <c r="X528" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y528" s="49">
+      <c r="Y528" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z528" s="49">
+      <c r="Z528" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA528" s="49">
+      <c r="AA528" s="5">
         <v>71</v>
       </c>
-      <c r="AH528" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI528" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL528" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM528" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM528" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>528</v>
       </c>
       <c r="B529" s="5">
         <v>10445</v>
       </c>
-      <c r="F529" s="61">
-        <v>1</v>
-      </c>
-      <c r="G529" s="61" t="s">
+      <c r="F529" s="5">
+        <v>1</v>
+      </c>
+      <c r="G529" s="5" t="s">
         <v>1964</v>
       </c>
-      <c r="I529" s="61" t="s">
+      <c r="I529" s="5" t="s">
         <v>2000</v>
       </c>
-      <c r="J529" s="61" t="s">
+      <c r="J529" s="5" t="s">
         <v>2001</v>
       </c>
-      <c r="L529" s="61">
+      <c r="L529" s="5">
         <v>-33</v>
       </c>
-      <c r="M529" s="61">
-        <v>0</v>
-      </c>
-      <c r="N529" s="61">
-        <v>0</v>
-      </c>
-      <c r="O529" s="61" t="s">
+      <c r="M529" s="5">
+        <v>0</v>
+      </c>
+      <c r="N529" s="5">
+        <v>0</v>
+      </c>
+      <c r="O529" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P529" s="61">
+      <c r="P529" s="5">
         <v>4800</v>
       </c>
-      <c r="Q529" s="61" t="s">
+      <c r="Q529" s="5" t="s">
         <v>1970</v>
       </c>
-      <c r="R529" s="62" t="s">
+      <c r="R529" s="10" t="s">
         <v>2002</v>
       </c>
-      <c r="W529" s="61" t="s">
+      <c r="W529" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X529" s="61">
+      <c r="X529" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y529" s="61">
+      <c r="Y529" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z529" s="61">
+      <c r="Z529" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA529" s="61">
+      <c r="AA529" s="5">
         <v>72</v>
       </c>
-      <c r="AH529" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI529" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL529" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM529" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM529" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>529</v>
       </c>
       <c r="B530" s="5">
         <v>10446</v>
       </c>
-      <c r="F530" s="61">
-        <v>1</v>
-      </c>
-      <c r="G530" s="61" t="s">
+      <c r="F530" s="5">
+        <v>1</v>
+      </c>
+      <c r="G530" s="5" t="s">
         <v>1973</v>
       </c>
-      <c r="I530" s="61" t="s">
+      <c r="I530" s="5" t="s">
         <v>2000</v>
       </c>
-      <c r="J530" s="61" t="s">
+      <c r="J530" s="5" t="s">
         <v>2003</v>
       </c>
-      <c r="L530" s="61">
+      <c r="L530" s="5">
         <v>-33</v>
       </c>
-      <c r="M530" s="61">
-        <v>0</v>
-      </c>
-      <c r="N530" s="61">
-        <v>0</v>
-      </c>
-      <c r="O530" s="61" t="s">
+      <c r="M530" s="5">
+        <v>0</v>
+      </c>
+      <c r="N530" s="5">
+        <v>0</v>
+      </c>
+      <c r="O530" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P530" s="61">
+      <c r="P530" s="5">
         <v>9800</v>
       </c>
-      <c r="Q530" s="61" t="s">
+      <c r="Q530" s="5" t="s">
         <v>1975</v>
       </c>
-      <c r="R530" s="62" t="s">
+      <c r="R530" s="10" t="s">
         <v>1994</v>
       </c>
-      <c r="W530" s="61" t="s">
+      <c r="W530" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X530" s="61">
+      <c r="X530" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y530" s="61">
+      <c r="Y530" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z530" s="61">
+      <c r="Z530" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA530" s="61">
+      <c r="AA530" s="5">
         <v>72</v>
       </c>
-      <c r="AH530" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI530" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL530" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM530" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM530" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>530</v>
       </c>
       <c r="B531" s="5">
         <v>10447</v>
       </c>
-      <c r="F531" s="61">
-        <v>1</v>
-      </c>
-      <c r="G531" s="61" t="s">
+      <c r="F531" s="5">
+        <v>1</v>
+      </c>
+      <c r="G531" s="5" t="s">
         <v>1992</v>
       </c>
-      <c r="I531" s="61" t="s">
+      <c r="I531" s="5" t="s">
         <v>2000</v>
       </c>
-      <c r="J531" s="61" t="s">
+      <c r="J531" s="5" t="s">
         <v>2004</v>
       </c>
-      <c r="L531" s="61">
+      <c r="L531" s="5">
         <v>-33</v>
       </c>
-      <c r="M531" s="61">
-        <v>0</v>
-      </c>
-      <c r="N531" s="61">
-        <v>0</v>
-      </c>
-      <c r="O531" s="61" t="s">
+      <c r="M531" s="5">
+        <v>0</v>
+      </c>
+      <c r="N531" s="5">
+        <v>0</v>
+      </c>
+      <c r="O531" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P531" s="61">
+      <c r="P531" s="5">
         <v>19800</v>
       </c>
-      <c r="Q531" s="61" t="s">
+      <c r="Q531" s="5" t="s">
         <v>1981</v>
       </c>
-      <c r="R531" s="62" t="s">
+      <c r="R531" s="10" t="s">
         <v>2005</v>
       </c>
-      <c r="W531" s="61" t="s">
+      <c r="W531" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X531" s="61">
+      <c r="X531" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y531" s="61">
+      <c r="Y531" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z531" s="61">
+      <c r="Z531" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA531" s="61">
+      <c r="AA531" s="5">
         <v>72</v>
       </c>
-      <c r="AH531" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI531" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL531" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM531" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM531" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>531</v>
       </c>
       <c r="B532" s="5">
         <v>10448</v>
       </c>
-      <c r="F532" s="61">
-        <v>1</v>
-      </c>
-      <c r="G532" s="61" t="s">
+      <c r="F532" s="5">
+        <v>1</v>
+      </c>
+      <c r="G532" s="5" t="s">
         <v>2006</v>
       </c>
-      <c r="I532" s="61" t="s">
+      <c r="I532" s="5" t="s">
         <v>1999</v>
       </c>
-      <c r="J532" s="61" t="s">
+      <c r="J532" s="5" t="s">
         <v>2007</v>
       </c>
-      <c r="L532" s="61">
+      <c r="L532" s="5">
         <v>-33</v>
       </c>
-      <c r="M532" s="61">
-        <v>0</v>
-      </c>
-      <c r="N532" s="61">
-        <v>0</v>
-      </c>
-      <c r="O532" s="61" t="s">
+      <c r="M532" s="5">
+        <v>0</v>
+      </c>
+      <c r="N532" s="5">
+        <v>0</v>
+      </c>
+      <c r="O532" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P532" s="61">
+      <c r="P532" s="5">
         <v>49800</v>
       </c>
-      <c r="Q532" s="61" t="s">
+      <c r="Q532" s="5" t="s">
         <v>1985</v>
       </c>
-      <c r="R532" s="62" t="s">
+      <c r="R532" s="10" t="s">
         <v>2008</v>
       </c>
-      <c r="W532" s="61" t="s">
+      <c r="W532" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X532" s="61">
+      <c r="X532" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y532" s="61">
+      <c r="Y532" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z532" s="61">
+      <c r="Z532" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA532" s="61">
+      <c r="AA532" s="5">
         <v>72</v>
       </c>
-      <c r="AH532" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI532" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL532" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM532" s="61">
+      <c r="AH532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM532" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>532</v>
+      </c>
+      <c r="B533" s="47">
+        <v>10449</v>
+      </c>
+      <c r="F533" s="47">
+        <v>0</v>
+      </c>
+      <c r="G533" s="47" t="s">
+        <v>2022</v>
+      </c>
+      <c r="I533" s="47" t="s">
+        <v>2023</v>
+      </c>
+      <c r="J533" s="47" t="s">
+        <v>2024</v>
+      </c>
+      <c r="L533" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M533" s="47">
+        <v>0</v>
+      </c>
+      <c r="N533" s="47">
+        <v>0</v>
+      </c>
+      <c r="O533" s="47" t="s">
+        <v>2025</v>
+      </c>
+      <c r="P533" s="47">
+        <v>1800</v>
+      </c>
+      <c r="Q533" s="47" t="s">
+        <v>2026</v>
+      </c>
+      <c r="R533" s="63" t="s">
+        <v>2027</v>
+      </c>
+      <c r="W533" s="47" t="s">
+        <v>2028</v>
+      </c>
+      <c r="X533" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y533" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z533" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA533" s="47">
+        <v>44</v>
+      </c>
+      <c r="AH533" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI533" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL533" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM533" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>533</v>
+      </c>
+      <c r="B534" s="47">
+        <v>10450</v>
+      </c>
+      <c r="F534" s="47">
+        <v>0</v>
+      </c>
+      <c r="G534" s="47" t="s">
+        <v>2029</v>
+      </c>
+      <c r="I534" s="47" t="s">
+        <v>2030</v>
+      </c>
+      <c r="J534" s="47" t="s">
+        <v>2031</v>
+      </c>
+      <c r="L534" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M534" s="47">
+        <v>0</v>
+      </c>
+      <c r="N534" s="47">
+        <v>0</v>
+      </c>
+      <c r="O534" s="47" t="s">
+        <v>2032</v>
+      </c>
+      <c r="P534" s="47">
+        <v>3000</v>
+      </c>
+      <c r="Q534" s="47" t="s">
+        <v>2033</v>
+      </c>
+      <c r="R534" s="63" t="s">
+        <v>2034</v>
+      </c>
+      <c r="W534" s="47" t="s">
+        <v>2028</v>
+      </c>
+      <c r="X534" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y534" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z534" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA534" s="47">
+        <v>44</v>
+      </c>
+      <c r="AH534" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI534" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL534" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM534" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>534</v>
+      </c>
+      <c r="B535" s="47">
+        <v>10451</v>
+      </c>
+      <c r="F535" s="47">
+        <v>0</v>
+      </c>
+      <c r="G535" s="47" t="s">
+        <v>2035</v>
+      </c>
+      <c r="I535" s="47" t="s">
+        <v>2030</v>
+      </c>
+      <c r="J535" s="47" t="s">
+        <v>2036</v>
+      </c>
+      <c r="L535" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M535" s="47">
+        <v>0</v>
+      </c>
+      <c r="N535" s="47">
+        <v>0</v>
+      </c>
+      <c r="O535" s="47" t="s">
+        <v>2025</v>
+      </c>
+      <c r="P535" s="47">
+        <v>4800</v>
+      </c>
+      <c r="Q535" s="47" t="s">
+        <v>2037</v>
+      </c>
+      <c r="R535" s="63" t="s">
+        <v>2038</v>
+      </c>
+      <c r="W535" s="47" t="s">
+        <v>2028</v>
+      </c>
+      <c r="X535" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y535" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z535" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA535" s="47">
+        <v>44</v>
+      </c>
+      <c r="AH535" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI535" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL535" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM535" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>535</v>
+      </c>
+      <c r="B536" s="49">
+        <v>10452</v>
+      </c>
+      <c r="F536" s="49">
+        <v>0</v>
+      </c>
+      <c r="G536" s="49" t="s">
+        <v>2022</v>
+      </c>
+      <c r="I536" s="49" t="s">
+        <v>2039</v>
+      </c>
+      <c r="J536" s="49" t="s">
+        <v>2040</v>
+      </c>
+      <c r="L536" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M536" s="49">
+        <v>0</v>
+      </c>
+      <c r="N536" s="49">
+        <v>0</v>
+      </c>
+      <c r="O536" s="49" t="s">
+        <v>2041</v>
+      </c>
+      <c r="P536" s="49">
+        <v>4800</v>
+      </c>
+      <c r="Q536" s="49" t="s">
+        <v>2042</v>
+      </c>
+      <c r="R536" s="64" t="s">
+        <v>2038</v>
+      </c>
+      <c r="W536" s="49" t="s">
+        <v>2028</v>
+      </c>
+      <c r="X536" s="49">
+        <v>9999999</v>
+      </c>
+      <c r="Y536" s="49">
+        <v>1611619200</v>
+      </c>
+      <c r="Z536" s="49">
+        <v>1612195199</v>
+      </c>
+      <c r="AA536" s="49">
+        <v>45</v>
+      </c>
+      <c r="AH536" s="49">
+        <v>1</v>
+      </c>
+      <c r="AI536" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL536" s="49">
+        <v>1</v>
+      </c>
+      <c r="AM536" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>536</v>
+      </c>
+      <c r="B537" s="49">
+        <v>10453</v>
+      </c>
+      <c r="F537" s="49">
+        <v>0</v>
+      </c>
+      <c r="G537" s="49" t="s">
+        <v>2029</v>
+      </c>
+      <c r="I537" s="49" t="s">
+        <v>2039</v>
+      </c>
+      <c r="J537" s="49" t="s">
+        <v>2043</v>
+      </c>
+      <c r="L537" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M537" s="49">
+        <v>0</v>
+      </c>
+      <c r="N537" s="49">
+        <v>0</v>
+      </c>
+      <c r="O537" s="49" t="s">
+        <v>2032</v>
+      </c>
+      <c r="P537" s="49">
+        <v>9800</v>
+      </c>
+      <c r="Q537" s="49" t="s">
+        <v>2044</v>
+      </c>
+      <c r="R537" s="64" t="s">
+        <v>2045</v>
+      </c>
+      <c r="W537" s="49" t="s">
+        <v>2028</v>
+      </c>
+      <c r="X537" s="49">
+        <v>9999999</v>
+      </c>
+      <c r="Y537" s="49">
+        <v>1611619200</v>
+      </c>
+      <c r="Z537" s="49">
+        <v>1612195199</v>
+      </c>
+      <c r="AA537" s="49">
+        <v>45</v>
+      </c>
+      <c r="AH537" s="49">
+        <v>1</v>
+      </c>
+      <c r="AI537" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL537" s="49">
+        <v>1</v>
+      </c>
+      <c r="AM537" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>537</v>
+      </c>
+      <c r="B538" s="49">
+        <v>10454</v>
+      </c>
+      <c r="F538" s="49">
+        <v>0</v>
+      </c>
+      <c r="G538" s="49" t="s">
+        <v>2035</v>
+      </c>
+      <c r="I538" s="49" t="s">
+        <v>2046</v>
+      </c>
+      <c r="J538" s="49" t="s">
+        <v>2047</v>
+      </c>
+      <c r="L538" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M538" s="49">
+        <v>0</v>
+      </c>
+      <c r="N538" s="49">
+        <v>0</v>
+      </c>
+      <c r="O538" s="49" t="s">
+        <v>2048</v>
+      </c>
+      <c r="P538" s="49">
+        <v>19800</v>
+      </c>
+      <c r="Q538" s="49" t="s">
+        <v>2049</v>
+      </c>
+      <c r="R538" s="64" t="s">
+        <v>2050</v>
+      </c>
+      <c r="W538" s="49" t="s">
+        <v>2028</v>
+      </c>
+      <c r="X538" s="49">
+        <v>9999999</v>
+      </c>
+      <c r="Y538" s="49">
+        <v>1611619200</v>
+      </c>
+      <c r="Z538" s="49">
+        <v>1612195199</v>
+      </c>
+      <c r="AA538" s="49">
+        <v>45</v>
+      </c>
+      <c r="AH538" s="49">
+        <v>1</v>
+      </c>
+      <c r="AI538" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL538" s="49">
+        <v>1</v>
+      </c>
+      <c r="AM538" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>538</v>
+      </c>
+      <c r="B539" s="47">
+        <v>10455</v>
+      </c>
+      <c r="F539" s="47">
+        <v>0</v>
+      </c>
+      <c r="G539" s="47" t="s">
+        <v>2022</v>
+      </c>
+      <c r="I539" s="47" t="s">
+        <v>2051</v>
+      </c>
+      <c r="J539" s="47" t="s">
+        <v>2052</v>
+      </c>
+      <c r="L539" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M539" s="47">
+        <v>0</v>
+      </c>
+      <c r="N539" s="47">
+        <v>0</v>
+      </c>
+      <c r="O539" s="47" t="s">
+        <v>2025</v>
+      </c>
+      <c r="P539" s="47">
+        <v>9800</v>
+      </c>
+      <c r="Q539" s="47" t="s">
+        <v>2053</v>
+      </c>
+      <c r="R539" s="63" t="s">
+        <v>2054</v>
+      </c>
+      <c r="W539" s="47" t="s">
+        <v>2028</v>
+      </c>
+      <c r="X539" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y539" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z539" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA539" s="47">
+        <v>46</v>
+      </c>
+      <c r="AH539" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI539" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL539" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM539" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>539</v>
+      </c>
+      <c r="B540" s="47">
+        <v>10456</v>
+      </c>
+      <c r="F540" s="47">
+        <v>0</v>
+      </c>
+      <c r="G540" s="47" t="s">
+        <v>2029</v>
+      </c>
+      <c r="I540" s="47" t="s">
+        <v>2051</v>
+      </c>
+      <c r="J540" s="47" t="s">
+        <v>2055</v>
+      </c>
+      <c r="L540" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M540" s="47">
+        <v>0</v>
+      </c>
+      <c r="N540" s="47">
+        <v>0</v>
+      </c>
+      <c r="O540" s="47" t="s">
+        <v>2025</v>
+      </c>
+      <c r="P540" s="47">
+        <v>19800</v>
+      </c>
+      <c r="Q540" s="47" t="s">
+        <v>2056</v>
+      </c>
+      <c r="R540" s="63" t="s">
+        <v>2057</v>
+      </c>
+      <c r="W540" s="47" t="s">
+        <v>2028</v>
+      </c>
+      <c r="X540" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y540" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z540" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA540" s="47">
+        <v>46</v>
+      </c>
+      <c r="AH540" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI540" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL540" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM540" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>540</v>
+      </c>
+      <c r="B541" s="47">
+        <v>10457</v>
+      </c>
+      <c r="F541" s="47">
+        <v>0</v>
+      </c>
+      <c r="G541" s="47" t="s">
+        <v>2035</v>
+      </c>
+      <c r="I541" s="47" t="s">
+        <v>2051</v>
+      </c>
+      <c r="J541" s="47" t="s">
+        <v>2058</v>
+      </c>
+      <c r="L541" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M541" s="47">
+        <v>0</v>
+      </c>
+      <c r="N541" s="47">
+        <v>0</v>
+      </c>
+      <c r="O541" s="47" t="s">
+        <v>2032</v>
+      </c>
+      <c r="P541" s="47">
+        <v>49800</v>
+      </c>
+      <c r="Q541" s="47" t="s">
+        <v>2059</v>
+      </c>
+      <c r="R541" s="63" t="s">
+        <v>2060</v>
+      </c>
+      <c r="W541" s="47" t="s">
+        <v>2028</v>
+      </c>
+      <c r="X541" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y541" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z541" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA541" s="47">
+        <v>46</v>
+      </c>
+      <c r="AH541" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI541" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL541" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM541" s="47">
         <v>1</v>
       </c>
     </row>
@@ -46539,45 +47280,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12">
         <v>70</v>
       </c>
-      <c r="B71" s="59" t="s">
+      <c r="B71" s="57" t="s">
         <v>1961</v>
       </c>
-      <c r="C71" s="60">
-        <v>1</v>
-      </c>
-      <c r="D71" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="58">
+        <v>1</v>
+      </c>
+      <c r="D71" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="12">
         <v>71</v>
       </c>
-      <c r="B72" s="59" t="s">
+      <c r="B72" s="57" t="s">
         <v>1962</v>
       </c>
-      <c r="C72" s="60">
-        <v>1</v>
-      </c>
-      <c r="D72" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="58">
+        <v>1</v>
+      </c>
+      <c r="D72" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12">
         <v>72</v>
       </c>
-      <c r="B73" s="59" t="s">
+      <c r="B73" s="57" t="s">
         <v>1963</v>
       </c>
-      <c r="C73" s="60">
-        <v>1</v>
-      </c>
-      <c r="D73" s="60">
+      <c r="C73" s="58">
+        <v>1</v>
+      </c>
+      <c r="D73" s="58">
         <v>0</v>
       </c>
     </row>

--- a/config_1.26/shoping_config_vivo.xlsx
+++ b/config_1.26/shoping_config_vivo.xlsx
@@ -11598,7 +11598,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="U512" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A533" sqref="A533:XFD541"/>
+      <selection pane="bottomRight" activeCell="F541" sqref="F541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -45667,7 +45667,7 @@
         <v>10449</v>
       </c>
       <c r="F533" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G533" s="47" t="s">
         <v>2022</v>
@@ -45735,7 +45735,7 @@
         <v>10450</v>
       </c>
       <c r="F534" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G534" s="47" t="s">
         <v>2029</v>
@@ -45803,7 +45803,7 @@
         <v>10451</v>
       </c>
       <c r="F535" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G535" s="47" t="s">
         <v>2035</v>
@@ -45871,7 +45871,7 @@
         <v>10452</v>
       </c>
       <c r="F536" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G536" s="49" t="s">
         <v>2022</v>
@@ -45939,7 +45939,7 @@
         <v>10453</v>
       </c>
       <c r="F537" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G537" s="49" t="s">
         <v>2029</v>
@@ -46007,7 +46007,7 @@
         <v>10454</v>
       </c>
       <c r="F538" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G538" s="49" t="s">
         <v>2035</v>
@@ -46075,7 +46075,7 @@
         <v>10455</v>
       </c>
       <c r="F539" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G539" s="47" t="s">
         <v>2022</v>
@@ -46143,7 +46143,7 @@
         <v>10456</v>
       </c>
       <c r="F540" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G540" s="47" t="s">
         <v>2029</v>
@@ -46211,7 +46211,7 @@
         <v>10457</v>
       </c>
       <c r="F541" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G541" s="47" t="s">
         <v>2035</v>

--- a/config_1.26/shoping_config_vivo.xlsx
+++ b/config_1.26/shoping_config_vivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -8373,18 +8373,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{type="permission_class",class_value = "fclb_free_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v1v7_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v8v12_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>恭字礼包</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8762,6 +8750,18 @@
   </si>
   <si>
     <t>49800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_2" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_3" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11594,11 +11594,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN541"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="U512" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F541" sqref="F541"/>
+      <selection pane="bottomRight" activeCell="U542" sqref="U542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -43279,10 +43279,10 @@
         <v>1885</v>
       </c>
       <c r="R497" s="63" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="W497" s="47" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="X497" s="5">
         <v>99999999</v>
@@ -43347,10 +43347,10 @@
         <v>1885</v>
       </c>
       <c r="R498" s="63" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="W498" s="47" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="X498" s="5">
         <v>99999999</v>
@@ -43415,10 +43415,10 @@
         <v>1885</v>
       </c>
       <c r="R499" s="63" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="W499" s="47" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="X499" s="5">
         <v>99999999</v>
@@ -43483,10 +43483,10 @@
         <v>1885</v>
       </c>
       <c r="R500" s="63" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="W500" s="47" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="X500" s="5">
         <v>99999999</v>
@@ -43551,10 +43551,10 @@
         <v>1885</v>
       </c>
       <c r="R501" s="63" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="W501" s="47" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="X501" s="5">
         <v>99999999</v>
@@ -43619,10 +43619,10 @@
         <v>1885</v>
       </c>
       <c r="R502" s="63" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="W502" s="47" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="X502" s="5">
         <v>99999999</v>
@@ -43687,10 +43687,10 @@
         <v>1895</v>
       </c>
       <c r="R503" s="64" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="W503" s="47" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="X503" s="5">
         <v>99999999</v>
@@ -43755,10 +43755,10 @@
         <v>1895</v>
       </c>
       <c r="R504" s="64" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="W504" s="47" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="X504" s="5">
         <v>99999999</v>
@@ -43823,10 +43823,10 @@
         <v>1895</v>
       </c>
       <c r="R505" s="64" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W505" s="47" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="X505" s="5">
         <v>99999999</v>
@@ -43891,10 +43891,10 @@
         <v>1899</v>
       </c>
       <c r="R506" s="64" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="W506" s="47" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="X506" s="5">
         <v>99999999</v>
@@ -43959,10 +43959,10 @@
         <v>1899</v>
       </c>
       <c r="R507" s="64" t="s">
+        <v>2015</v>
+      </c>
+      <c r="W507" s="47" t="s">
         <v>2018</v>
-      </c>
-      <c r="W507" s="47" t="s">
-        <v>2021</v>
       </c>
       <c r="X507" s="5">
         <v>99999999</v>
@@ -44027,10 +44027,10 @@
         <v>1899</v>
       </c>
       <c r="R508" s="64" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="W508" s="47" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="X508" s="5">
         <v>99999999</v>
@@ -44854,13 +44854,13 @@
         <v>1</v>
       </c>
       <c r="G521" s="5" t="s">
+        <v>1962</v>
+      </c>
+      <c r="I521" s="5" t="s">
+        <v>1964</v>
+      </c>
+      <c r="J521" s="5" t="s">
         <v>1965</v>
-      </c>
-      <c r="I521" s="5" t="s">
-        <v>1967</v>
-      </c>
-      <c r="J521" s="5" t="s">
-        <v>1968</v>
       </c>
       <c r="L521" s="5">
         <v>-33</v>
@@ -44878,10 +44878,10 @@
         <v>600</v>
       </c>
       <c r="Q521" s="5" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="R521" s="10" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="W521" s="5" t="s">
         <v>1190</v>
@@ -44922,13 +44922,13 @@
         <v>1</v>
       </c>
       <c r="G522" s="5" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="I522" s="5" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="J522" s="5" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="L522" s="5">
         <v>-33</v>
@@ -44946,10 +44946,10 @@
         <v>1000</v>
       </c>
       <c r="Q522" s="5" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="R522" s="10" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="W522" s="5" t="s">
         <v>1103</v>
@@ -44990,13 +44990,13 @@
         <v>1</v>
       </c>
       <c r="G523" s="5" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="I523" s="5" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="J523" s="5" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="L523" s="5">
         <v>-33</v>
@@ -45014,10 +45014,10 @@
         <v>1800</v>
       </c>
       <c r="Q523" s="5" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="R523" s="10" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="W523" s="5" t="s">
         <v>1103</v>
@@ -45058,13 +45058,13 @@
         <v>1</v>
       </c>
       <c r="G524" s="5" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="I524" s="5" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="J524" s="5" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="L524" s="5">
         <v>-33</v>
@@ -45082,10 +45082,10 @@
         <v>4800</v>
       </c>
       <c r="Q524" s="5" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="R524" s="10" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="W524" s="5" t="s">
         <v>1103</v>
@@ -45126,13 +45126,13 @@
         <v>1</v>
       </c>
       <c r="G525" s="5" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="I525" s="5" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="J525" s="5" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="L525" s="5">
         <v>-33</v>
@@ -45150,10 +45150,10 @@
         <v>1800</v>
       </c>
       <c r="Q525" s="5" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="R525" s="10" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="W525" s="5" t="s">
         <v>1103</v>
@@ -45194,13 +45194,13 @@
         <v>1</v>
       </c>
       <c r="G526" s="5" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="I526" s="5" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="J526" s="5" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="L526" s="5">
         <v>-33</v>
@@ -45218,10 +45218,10 @@
         <v>4800</v>
       </c>
       <c r="Q526" s="5" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="R526" s="10" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="W526" s="5" t="s">
         <v>1103</v>
@@ -45262,13 +45262,13 @@
         <v>1</v>
       </c>
       <c r="G527" s="5" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="I527" s="5" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="J527" s="5" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="L527" s="5">
         <v>-33</v>
@@ -45286,10 +45286,10 @@
         <v>9800</v>
       </c>
       <c r="Q527" s="5" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="R527" s="10" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="W527" s="5" t="s">
         <v>1103</v>
@@ -45330,13 +45330,13 @@
         <v>1</v>
       </c>
       <c r="G528" s="5" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="I528" s="5" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="J528" s="5" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="L528" s="5">
         <v>-33</v>
@@ -45354,10 +45354,10 @@
         <v>19800</v>
       </c>
       <c r="Q528" s="5" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="R528" s="10" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="W528" s="5" t="s">
         <v>1103</v>
@@ -45398,13 +45398,13 @@
         <v>1</v>
       </c>
       <c r="G529" s="5" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="I529" s="5" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="J529" s="5" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="L529" s="5">
         <v>-33</v>
@@ -45422,10 +45422,10 @@
         <v>4800</v>
       </c>
       <c r="Q529" s="5" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="R529" s="10" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="W529" s="5" t="s">
         <v>1103</v>
@@ -45466,13 +45466,13 @@
         <v>1</v>
       </c>
       <c r="G530" s="5" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="I530" s="5" t="s">
+        <v>1997</v>
+      </c>
+      <c r="J530" s="5" t="s">
         <v>2000</v>
-      </c>
-      <c r="J530" s="5" t="s">
-        <v>2003</v>
       </c>
       <c r="L530" s="5">
         <v>-33</v>
@@ -45490,10 +45490,10 @@
         <v>9800</v>
       </c>
       <c r="Q530" s="5" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="R530" s="10" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="W530" s="5" t="s">
         <v>1103</v>
@@ -45534,13 +45534,13 @@
         <v>1</v>
       </c>
       <c r="G531" s="5" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="I531" s="5" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="J531" s="5" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="L531" s="5">
         <v>-33</v>
@@ -45558,10 +45558,10 @@
         <v>19800</v>
       </c>
       <c r="Q531" s="5" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="R531" s="10" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="W531" s="5" t="s">
         <v>1103</v>
@@ -45602,13 +45602,13 @@
         <v>1</v>
       </c>
       <c r="G532" s="5" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="I532" s="5" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="J532" s="5" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="L532" s="5">
         <v>-33</v>
@@ -45626,10 +45626,10 @@
         <v>49800</v>
       </c>
       <c r="Q532" s="5" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="R532" s="10" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="W532" s="5" t="s">
         <v>1103</v>
@@ -45670,13 +45670,13 @@
         <v>1</v>
       </c>
       <c r="G533" s="47" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="I533" s="47" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="J533" s="47" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="L533" s="47">
         <v>-31</v>
@@ -45688,19 +45688,19 @@
         <v>0</v>
       </c>
       <c r="O533" s="47" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="P533" s="47">
         <v>1800</v>
       </c>
       <c r="Q533" s="47" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="R533" s="63" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="W533" s="47" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="X533" s="47">
         <v>9999999</v>
@@ -45738,13 +45738,13 @@
         <v>1</v>
       </c>
       <c r="G534" s="47" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="I534" s="47" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="J534" s="47" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="L534" s="47">
         <v>-31</v>
@@ -45756,19 +45756,19 @@
         <v>0</v>
       </c>
       <c r="O534" s="47" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="P534" s="47">
         <v>3000</v>
       </c>
       <c r="Q534" s="47" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="R534" s="63" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
       <c r="W534" s="47" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="X534" s="47">
         <v>9999999</v>
@@ -45806,13 +45806,13 @@
         <v>1</v>
       </c>
       <c r="G535" s="47" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
       <c r="I535" s="47" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="J535" s="47" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="L535" s="47">
         <v>-31</v>
@@ -45824,19 +45824,19 @@
         <v>0</v>
       </c>
       <c r="O535" s="47" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="P535" s="47">
         <v>4800</v>
       </c>
       <c r="Q535" s="47" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="R535" s="63" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="W535" s="47" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="X535" s="47">
         <v>9999999</v>
@@ -45874,13 +45874,13 @@
         <v>1</v>
       </c>
       <c r="G536" s="49" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="I536" s="49" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="J536" s="49" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="L536" s="49">
         <v>-31</v>
@@ -45892,19 +45892,19 @@
         <v>0</v>
       </c>
       <c r="O536" s="49" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="P536" s="49">
         <v>4800</v>
       </c>
       <c r="Q536" s="49" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="R536" s="64" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="W536" s="49" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="X536" s="49">
         <v>9999999</v>
@@ -45942,13 +45942,13 @@
         <v>1</v>
       </c>
       <c r="G537" s="49" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="I537" s="49" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="J537" s="49" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="L537" s="49">
         <v>-31</v>
@@ -45960,19 +45960,19 @@
         <v>0</v>
       </c>
       <c r="O537" s="49" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="P537" s="49">
         <v>9800</v>
       </c>
       <c r="Q537" s="49" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="R537" s="64" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="W537" s="49" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="X537" s="49">
         <v>9999999</v>
@@ -46010,13 +46010,13 @@
         <v>1</v>
       </c>
       <c r="G538" s="49" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
       <c r="I538" s="49" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="J538" s="49" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="L538" s="49">
         <v>-31</v>
@@ -46028,19 +46028,19 @@
         <v>0</v>
       </c>
       <c r="O538" s="49" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="P538" s="49">
         <v>19800</v>
       </c>
       <c r="Q538" s="49" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="R538" s="64" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="W538" s="49" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="X538" s="49">
         <v>9999999</v>
@@ -46078,13 +46078,13 @@
         <v>1</v>
       </c>
       <c r="G539" s="47" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="I539" s="47" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="J539" s="47" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="L539" s="47">
         <v>-31</v>
@@ -46096,19 +46096,19 @@
         <v>0</v>
       </c>
       <c r="O539" s="47" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="P539" s="47">
         <v>9800</v>
       </c>
       <c r="Q539" s="47" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="R539" s="63" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="W539" s="47" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="X539" s="47">
         <v>9999999</v>
@@ -46146,13 +46146,13 @@
         <v>1</v>
       </c>
       <c r="G540" s="47" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="I540" s="47" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="J540" s="47" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="L540" s="47">
         <v>-31</v>
@@ -46164,19 +46164,19 @@
         <v>0</v>
       </c>
       <c r="O540" s="47" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="P540" s="47">
         <v>19800</v>
       </c>
       <c r="Q540" s="47" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="R540" s="63" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="W540" s="47" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="X540" s="47">
         <v>9999999</v>
@@ -46214,13 +46214,13 @@
         <v>1</v>
       </c>
       <c r="G541" s="47" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
       <c r="I541" s="47" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="J541" s="47" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="L541" s="47">
         <v>-31</v>
@@ -46232,19 +46232,19 @@
         <v>0</v>
       </c>
       <c r="O541" s="47" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="P541" s="47">
         <v>49800</v>
       </c>
       <c r="Q541" s="47" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="R541" s="63" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="W541" s="47" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="X541" s="47">
         <v>9999999</v>
@@ -46283,8 +46283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47285,7 +47285,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="57" t="s">
-        <v>1961</v>
+        <v>2058</v>
       </c>
       <c r="C71" s="58">
         <v>1</v>
@@ -47299,7 +47299,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>1962</v>
+        <v>2059</v>
       </c>
       <c r="C72" s="58">
         <v>1</v>
@@ -47313,7 +47313,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>1963</v>
+        <v>2060</v>
       </c>
       <c r="C73" s="58">
         <v>1</v>

--- a/config_1.26/shoping_config_vivo.xlsx
+++ b/config_1.26/shoping_config_vivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -8401,10 +8401,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>60000,20000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>喜字礼包</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8762,6 +8758,10 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "golden_egg_3" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,20000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11594,11 +11594,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN541"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U512" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="Q506" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U542" sqref="U542"/>
+      <selection pane="bottomRight" activeCell="R521" sqref="R521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -43279,10 +43279,10 @@
         <v>1885</v>
       </c>
       <c r="R497" s="63" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="W497" s="47" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="X497" s="5">
         <v>99999999</v>
@@ -43347,10 +43347,10 @@
         <v>1885</v>
       </c>
       <c r="R498" s="63" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="W498" s="47" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="X498" s="5">
         <v>99999999</v>
@@ -43415,10 +43415,10 @@
         <v>1885</v>
       </c>
       <c r="R499" s="63" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="W499" s="47" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="X499" s="5">
         <v>99999999</v>
@@ -43483,10 +43483,10 @@
         <v>1885</v>
       </c>
       <c r="R500" s="63" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="W500" s="47" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="X500" s="5">
         <v>99999999</v>
@@ -43551,10 +43551,10 @@
         <v>1885</v>
       </c>
       <c r="R501" s="63" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="W501" s="47" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="X501" s="5">
         <v>99999999</v>
@@ -43619,10 +43619,10 @@
         <v>1885</v>
       </c>
       <c r="R502" s="63" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="W502" s="47" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="X502" s="5">
         <v>99999999</v>
@@ -43687,10 +43687,10 @@
         <v>1895</v>
       </c>
       <c r="R503" s="64" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="W503" s="47" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="X503" s="5">
         <v>99999999</v>
@@ -43755,10 +43755,10 @@
         <v>1895</v>
       </c>
       <c r="R504" s="64" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="W504" s="47" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="X504" s="5">
         <v>99999999</v>
@@ -43823,10 +43823,10 @@
         <v>1895</v>
       </c>
       <c r="R505" s="64" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="W505" s="47" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="X505" s="5">
         <v>99999999</v>
@@ -43891,10 +43891,10 @@
         <v>1899</v>
       </c>
       <c r="R506" s="64" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="W506" s="47" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="X506" s="5">
         <v>99999999</v>
@@ -43959,10 +43959,10 @@
         <v>1899</v>
       </c>
       <c r="R507" s="64" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="W507" s="47" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="X507" s="5">
         <v>99999999</v>
@@ -44027,10 +44027,10 @@
         <v>1899</v>
       </c>
       <c r="R508" s="64" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="W508" s="47" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="X508" s="5">
         <v>99999999</v>
@@ -44881,7 +44881,7 @@
         <v>1967</v>
       </c>
       <c r="R521" s="10" t="s">
-        <v>1968</v>
+        <v>2060</v>
       </c>
       <c r="W521" s="5" t="s">
         <v>1190</v>
@@ -44922,13 +44922,13 @@
         <v>1</v>
       </c>
       <c r="G522" s="5" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="I522" s="5" t="s">
         <v>1964</v>
       </c>
       <c r="J522" s="5" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="L522" s="5">
         <v>-33</v>
@@ -44946,10 +44946,10 @@
         <v>1000</v>
       </c>
       <c r="Q522" s="5" t="s">
+        <v>1972</v>
+      </c>
+      <c r="R522" s="10" t="s">
         <v>1973</v>
-      </c>
-      <c r="R522" s="10" t="s">
-        <v>1974</v>
       </c>
       <c r="W522" s="5" t="s">
         <v>1103</v>
@@ -44990,13 +44990,13 @@
         <v>1</v>
       </c>
       <c r="G523" s="5" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="I523" s="5" t="s">
         <v>1963</v>
       </c>
       <c r="J523" s="5" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="L523" s="5">
         <v>-33</v>
@@ -45014,10 +45014,10 @@
         <v>1800</v>
       </c>
       <c r="Q523" s="5" t="s">
+        <v>1977</v>
+      </c>
+      <c r="R523" s="10" t="s">
         <v>1978</v>
-      </c>
-      <c r="R523" s="10" t="s">
-        <v>1979</v>
       </c>
       <c r="W523" s="5" t="s">
         <v>1103</v>
@@ -45058,13 +45058,13 @@
         <v>1</v>
       </c>
       <c r="G524" s="5" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="I524" s="5" t="s">
         <v>1964</v>
       </c>
       <c r="J524" s="5" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="L524" s="5">
         <v>-33</v>
@@ -45082,10 +45082,10 @@
         <v>4800</v>
       </c>
       <c r="Q524" s="5" t="s">
+        <v>1981</v>
+      </c>
+      <c r="R524" s="10" t="s">
         <v>1982</v>
-      </c>
-      <c r="R524" s="10" t="s">
-        <v>1983</v>
       </c>
       <c r="W524" s="5" t="s">
         <v>1103</v>
@@ -45129,10 +45129,10 @@
         <v>1961</v>
       </c>
       <c r="I525" s="5" t="s">
+        <v>1983</v>
+      </c>
+      <c r="J525" s="5" t="s">
         <v>1984</v>
-      </c>
-      <c r="J525" s="5" t="s">
-        <v>1985</v>
       </c>
       <c r="L525" s="5">
         <v>-33</v>
@@ -45153,7 +45153,7 @@
         <v>1966</v>
       </c>
       <c r="R525" s="10" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="W525" s="5" t="s">
         <v>1103</v>
@@ -45194,13 +45194,13 @@
         <v>1</v>
       </c>
       <c r="G526" s="5" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="I526" s="5" t="s">
+        <v>1985</v>
+      </c>
+      <c r="J526" s="5" t="s">
         <v>1986</v>
-      </c>
-      <c r="J526" s="5" t="s">
-        <v>1987</v>
       </c>
       <c r="L526" s="5">
         <v>-33</v>
@@ -45218,10 +45218,10 @@
         <v>4800</v>
       </c>
       <c r="Q526" s="5" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="R526" s="10" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="W526" s="5" t="s">
         <v>1103</v>
@@ -45262,13 +45262,13 @@
         <v>1</v>
       </c>
       <c r="G527" s="5" t="s">
+        <v>1988</v>
+      </c>
+      <c r="I527" s="5" t="s">
+        <v>1985</v>
+      </c>
+      <c r="J527" s="5" t="s">
         <v>1989</v>
-      </c>
-      <c r="I527" s="5" t="s">
-        <v>1986</v>
-      </c>
-      <c r="J527" s="5" t="s">
-        <v>1990</v>
       </c>
       <c r="L527" s="5">
         <v>-33</v>
@@ -45286,10 +45286,10 @@
         <v>9800</v>
       </c>
       <c r="Q527" s="5" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="R527" s="10" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="W527" s="5" t="s">
         <v>1103</v>
@@ -45330,13 +45330,13 @@
         <v>1</v>
       </c>
       <c r="G528" s="5" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="I528" s="5" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="J528" s="5" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="L528" s="5">
         <v>-33</v>
@@ -45354,10 +45354,10 @@
         <v>19800</v>
       </c>
       <c r="Q528" s="5" t="s">
+        <v>1993</v>
+      </c>
+      <c r="R528" s="10" t="s">
         <v>1994</v>
-      </c>
-      <c r="R528" s="10" t="s">
-        <v>1995</v>
       </c>
       <c r="W528" s="5" t="s">
         <v>1103</v>
@@ -45401,10 +45401,10 @@
         <v>1961</v>
       </c>
       <c r="I529" s="5" t="s">
+        <v>1996</v>
+      </c>
+      <c r="J529" s="5" t="s">
         <v>1997</v>
-      </c>
-      <c r="J529" s="5" t="s">
-        <v>1998</v>
       </c>
       <c r="L529" s="5">
         <v>-33</v>
@@ -45425,7 +45425,7 @@
         <v>1967</v>
       </c>
       <c r="R529" s="10" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="W529" s="5" t="s">
         <v>1103</v>
@@ -45466,13 +45466,13 @@
         <v>1</v>
       </c>
       <c r="G530" s="5" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="I530" s="5" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="J530" s="5" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="L530" s="5">
         <v>-33</v>
@@ -45490,10 +45490,10 @@
         <v>9800</v>
       </c>
       <c r="Q530" s="5" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="R530" s="10" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="W530" s="5" t="s">
         <v>1103</v>
@@ -45534,13 +45534,13 @@
         <v>1</v>
       </c>
       <c r="G531" s="5" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="I531" s="5" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="J531" s="5" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="L531" s="5">
         <v>-33</v>
@@ -45558,10 +45558,10 @@
         <v>19800</v>
       </c>
       <c r="Q531" s="5" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="R531" s="10" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="W531" s="5" t="s">
         <v>1103</v>
@@ -45602,13 +45602,13 @@
         <v>1</v>
       </c>
       <c r="G532" s="5" t="s">
+        <v>2002</v>
+      </c>
+      <c r="I532" s="5" t="s">
+        <v>1995</v>
+      </c>
+      <c r="J532" s="5" t="s">
         <v>2003</v>
-      </c>
-      <c r="I532" s="5" t="s">
-        <v>1996</v>
-      </c>
-      <c r="J532" s="5" t="s">
-        <v>2004</v>
       </c>
       <c r="L532" s="5">
         <v>-33</v>
@@ -45626,10 +45626,10 @@
         <v>49800</v>
       </c>
       <c r="Q532" s="5" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="R532" s="10" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="W532" s="5" t="s">
         <v>1103</v>
@@ -45670,13 +45670,13 @@
         <v>1</v>
       </c>
       <c r="G533" s="47" t="s">
+        <v>2018</v>
+      </c>
+      <c r="I533" s="47" t="s">
         <v>2019</v>
       </c>
-      <c r="I533" s="47" t="s">
+      <c r="J533" s="47" t="s">
         <v>2020</v>
-      </c>
-      <c r="J533" s="47" t="s">
-        <v>2021</v>
       </c>
       <c r="L533" s="47">
         <v>-31</v>
@@ -45688,19 +45688,19 @@
         <v>0</v>
       </c>
       <c r="O533" s="47" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="P533" s="47">
         <v>1800</v>
       </c>
       <c r="Q533" s="47" t="s">
+        <v>2022</v>
+      </c>
+      <c r="R533" s="63" t="s">
         <v>2023</v>
       </c>
-      <c r="R533" s="63" t="s">
+      <c r="W533" s="47" t="s">
         <v>2024</v>
-      </c>
-      <c r="W533" s="47" t="s">
-        <v>2025</v>
       </c>
       <c r="X533" s="47">
         <v>9999999</v>
@@ -45738,13 +45738,13 @@
         <v>1</v>
       </c>
       <c r="G534" s="47" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I534" s="47" t="s">
         <v>2026</v>
       </c>
-      <c r="I534" s="47" t="s">
+      <c r="J534" s="47" t="s">
         <v>2027</v>
-      </c>
-      <c r="J534" s="47" t="s">
-        <v>2028</v>
       </c>
       <c r="L534" s="47">
         <v>-31</v>
@@ -45756,19 +45756,19 @@
         <v>0</v>
       </c>
       <c r="O534" s="47" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="P534" s="47">
         <v>3000</v>
       </c>
       <c r="Q534" s="47" t="s">
+        <v>2029</v>
+      </c>
+      <c r="R534" s="63" t="s">
         <v>2030</v>
       </c>
-      <c r="R534" s="63" t="s">
-        <v>2031</v>
-      </c>
       <c r="W534" s="47" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="X534" s="47">
         <v>9999999</v>
@@ -45806,13 +45806,13 @@
         <v>1</v>
       </c>
       <c r="G535" s="47" t="s">
+        <v>2031</v>
+      </c>
+      <c r="I535" s="47" t="s">
+        <v>2026</v>
+      </c>
+      <c r="J535" s="47" t="s">
         <v>2032</v>
-      </c>
-      <c r="I535" s="47" t="s">
-        <v>2027</v>
-      </c>
-      <c r="J535" s="47" t="s">
-        <v>2033</v>
       </c>
       <c r="L535" s="47">
         <v>-31</v>
@@ -45824,19 +45824,19 @@
         <v>0</v>
       </c>
       <c r="O535" s="47" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="P535" s="47">
         <v>4800</v>
       </c>
       <c r="Q535" s="47" t="s">
+        <v>2033</v>
+      </c>
+      <c r="R535" s="63" t="s">
         <v>2034</v>
       </c>
-      <c r="R535" s="63" t="s">
-        <v>2035</v>
-      </c>
       <c r="W535" s="47" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="X535" s="47">
         <v>9999999</v>
@@ -45874,13 +45874,13 @@
         <v>1</v>
       </c>
       <c r="G536" s="49" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I536" s="49" t="s">
+        <v>2035</v>
+      </c>
+      <c r="J536" s="49" t="s">
         <v>2036</v>
-      </c>
-      <c r="J536" s="49" t="s">
-        <v>2037</v>
       </c>
       <c r="L536" s="49">
         <v>-31</v>
@@ -45892,19 +45892,19 @@
         <v>0</v>
       </c>
       <c r="O536" s="49" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="P536" s="49">
         <v>4800</v>
       </c>
       <c r="Q536" s="49" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="R536" s="64" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="W536" s="49" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="X536" s="49">
         <v>9999999</v>
@@ -45942,13 +45942,13 @@
         <v>1</v>
       </c>
       <c r="G537" s="49" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="I537" s="49" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="J537" s="49" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="L537" s="49">
         <v>-31</v>
@@ -45960,19 +45960,19 @@
         <v>0</v>
       </c>
       <c r="O537" s="49" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="P537" s="49">
         <v>9800</v>
       </c>
       <c r="Q537" s="49" t="s">
+        <v>2040</v>
+      </c>
+      <c r="R537" s="64" t="s">
         <v>2041</v>
       </c>
-      <c r="R537" s="64" t="s">
-        <v>2042</v>
-      </c>
       <c r="W537" s="49" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="X537" s="49">
         <v>9999999</v>
@@ -46010,13 +46010,13 @@
         <v>1</v>
       </c>
       <c r="G538" s="49" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="I538" s="49" t="s">
+        <v>2042</v>
+      </c>
+      <c r="J538" s="49" t="s">
         <v>2043</v>
-      </c>
-      <c r="J538" s="49" t="s">
-        <v>2044</v>
       </c>
       <c r="L538" s="49">
         <v>-31</v>
@@ -46028,19 +46028,19 @@
         <v>0</v>
       </c>
       <c r="O538" s="49" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="P538" s="49">
         <v>19800</v>
       </c>
       <c r="Q538" s="49" t="s">
+        <v>2045</v>
+      </c>
+      <c r="R538" s="64" t="s">
         <v>2046</v>
       </c>
-      <c r="R538" s="64" t="s">
-        <v>2047</v>
-      </c>
       <c r="W538" s="49" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="X538" s="49">
         <v>9999999</v>
@@ -46078,13 +46078,13 @@
         <v>1</v>
       </c>
       <c r="G539" s="47" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I539" s="47" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J539" s="47" t="s">
         <v>2048</v>
-      </c>
-      <c r="J539" s="47" t="s">
-        <v>2049</v>
       </c>
       <c r="L539" s="47">
         <v>-31</v>
@@ -46096,19 +46096,19 @@
         <v>0</v>
       </c>
       <c r="O539" s="47" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="P539" s="47">
         <v>9800</v>
       </c>
       <c r="Q539" s="47" t="s">
+        <v>2049</v>
+      </c>
+      <c r="R539" s="63" t="s">
         <v>2050</v>
       </c>
-      <c r="R539" s="63" t="s">
-        <v>2051</v>
-      </c>
       <c r="W539" s="47" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="X539" s="47">
         <v>9999999</v>
@@ -46146,13 +46146,13 @@
         <v>1</v>
       </c>
       <c r="G540" s="47" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="I540" s="47" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="J540" s="47" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="L540" s="47">
         <v>-31</v>
@@ -46164,19 +46164,19 @@
         <v>0</v>
       </c>
       <c r="O540" s="47" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="P540" s="47">
         <v>19800</v>
       </c>
       <c r="Q540" s="47" t="s">
+        <v>2052</v>
+      </c>
+      <c r="R540" s="63" t="s">
         <v>2053</v>
       </c>
-      <c r="R540" s="63" t="s">
-        <v>2054</v>
-      </c>
       <c r="W540" s="47" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="X540" s="47">
         <v>9999999</v>
@@ -46214,13 +46214,13 @@
         <v>1</v>
       </c>
       <c r="G541" s="47" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="I541" s="47" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="J541" s="47" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="L541" s="47">
         <v>-31</v>
@@ -46232,19 +46232,19 @@
         <v>0</v>
       </c>
       <c r="O541" s="47" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="P541" s="47">
         <v>49800</v>
       </c>
       <c r="Q541" s="47" t="s">
+        <v>2055</v>
+      </c>
+      <c r="R541" s="63" t="s">
         <v>2056</v>
       </c>
-      <c r="R541" s="63" t="s">
-        <v>2057</v>
-      </c>
       <c r="W541" s="47" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="X541" s="47">
         <v>9999999</v>
@@ -46283,8 +46283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71:B73"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47285,7 +47285,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="57" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C71" s="58">
         <v>1</v>
@@ -47299,7 +47299,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="C72" s="58">
         <v>1</v>
@@ -47313,7 +47313,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="C73" s="58">
         <v>1</v>
